--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{ABFC273F-1EC1-4D7E-8700-159149DAF5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABD7C4E9-C9E3-4A41-944C-5301E4A0C05F}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{ABFC273F-1EC1-4D7E-8700-159149DAF5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E375C8-E4CF-48DB-AFB0-AF7FF4698801}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
@@ -898,7 +898,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -1188,21 +1188,9 @@
     <t>Representa la contraseña de acceso que tiene un residente para poder ingresar a la aplicación de reservas.</t>
   </si>
   <si>
-    <t xml:space="preserve">Identificacion de residente </t>
-  </si>
-  <si>
-    <t>No es posible tener más de un residente con el mismo numero de identificador.</t>
-  </si>
-  <si>
     <t>numeroID</t>
   </si>
   <si>
-    <t>No es posible tener más de un residente con el mismo numero de identificación, el mismo correo electrónico y el mismo número de contacto.</t>
-  </si>
-  <si>
-    <t>numeroContacto</t>
-  </si>
-  <si>
     <t>tipoInmueble</t>
   </si>
   <si>
@@ -1231,6 +1219,12 @@
   </si>
   <si>
     <t>No es posible tener más de un inmueble con la misma zona inmueble, el mismo tipo inmueble, el mismo numero de vivienda, con el mismo identificador.</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un residente con el mismo nombre, apellido, tipo de documento y numero documento para el mismo inmueble.</t>
+  </si>
+  <si>
+    <t>numeroDocumento</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1657,45 +1651,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -1720,9 +1675,40 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1736,13 +1722,24 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1909,6 +1906,18 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1927,6 +1936,69 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1951,45 +2023,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1999,71 +2032,35 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2462,10 +2459,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="61"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2585,11 +2582,11 @@
       <c r="A1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -2615,7 +2612,7 @@
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="64" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
@@ -2631,7 +2628,7 @@
         <f>Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2649,8 +2646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD2E3E-2179-4007-8743-BED3F3BF1317}">
   <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2681,73 +2678,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="71" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="72" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -2819,7 +2816,7 @@
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="105" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="24" t="s">
@@ -3006,7 +3003,7 @@
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="23" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" s="24" t="s">
         <v>13</v>
@@ -3313,101 +3310,97 @@
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="93" t="s">
+      <c r="A17" s="73" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="95"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="75"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="96" t="s">
+      <c r="A18" s="56" t="s">
         <v>51</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="97" t="s">
+      <c r="C18" s="57" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="98" t="s">
+    <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="92" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="99" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="101" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
-      <c r="B21" s="103"/>
-      <c r="C21" s="99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="34.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
-      <c r="B22" s="107"/>
-      <c r="C22" s="100" t="s">
-        <v>69</v>
+      <c r="B19" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19" s="58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="103"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="107" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="103"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="104"/>
+      <c r="B22" s="82"/>
+      <c r="C22" s="106" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="86" t="s">
+      <c r="A24" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70" t="s">
+      <c r="B24" s="77"/>
+      <c r="C24" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70" t="s">
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70" t="s">
+      <c r="I24" s="77"/>
+      <c r="J24" s="77"/>
+      <c r="K24" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="70"/>
-      <c r="P24" s="70" t="s">
+      <c r="L24" s="77"/>
+      <c r="M24" s="77"/>
+      <c r="N24" s="77"/>
+      <c r="O24" s="77"/>
+      <c r="P24" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="Q24" s="70"/>
-      <c r="R24" s="70" t="s">
+      <c r="Q24" s="77"/>
+      <c r="R24" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="71"/>
+      <c r="S24" s="83"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="87"/>
-      <c r="B25" s="72"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="79"/>
       <c r="H25" s="35" t="s">
         <v>59</v>
       </c>
@@ -3420,12 +3413,12 @@
       <c r="K25" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L25" s="72" t="s">
+      <c r="L25" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="79"/>
       <c r="P25" s="35" t="s">
         <v>61</v>
       </c>
@@ -3440,92 +3433,92 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="14"/>
       <c r="I26" s="12"/>
       <c r="J26" s="13"/>
       <c r="K26" s="12"/>
-      <c r="L26" s="75"/>
-      <c r="M26" s="75"/>
-      <c r="N26" s="75"/>
-      <c r="O26" s="75"/>
+      <c r="L26" s="86"/>
+      <c r="M26" s="86"/>
+      <c r="N26" s="86"/>
+      <c r="O26" s="86"/>
       <c r="P26" s="14"/>
       <c r="Q26" s="14"/>
       <c r="R26" s="14"/>
       <c r="S26" s="37"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="76" t="s">
+      <c r="A27" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="68"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="68"/>
+      <c r="G27" s="68"/>
       <c r="H27" s="40"/>
       <c r="I27" s="38"/>
       <c r="J27" s="39"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="79"/>
-      <c r="M27" s="79"/>
-      <c r="N27" s="79"/>
-      <c r="O27" s="79"/>
+      <c r="L27" s="69"/>
+      <c r="M27" s="69"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="69"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="42"/>
       <c r="R27" s="42"/>
       <c r="S27" s="43"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
       <c r="H28" s="45"/>
       <c r="I28" s="46"/>
       <c r="J28" s="44"/>
       <c r="K28" s="47"/>
-      <c r="L28" s="65"/>
-      <c r="M28" s="65"/>
-      <c r="N28" s="65"/>
-      <c r="O28" s="65"/>
+      <c r="L28" s="90"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="90"/>
+      <c r="O28" s="90"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="48"/>
       <c r="R28" s="48"/>
       <c r="S28" s="49"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="66" t="s">
+      <c r="A29" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="67"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="93"/>
+      <c r="G29" s="93"/>
       <c r="H29" s="51"/>
       <c r="I29" s="52"/>
       <c r="J29" s="50"/>
       <c r="K29" s="51"/>
-      <c r="L29" s="69"/>
-      <c r="M29" s="69"/>
-      <c r="N29" s="69"/>
-      <c r="O29" s="69"/>
+      <c r="L29" s="94"/>
+      <c r="M29" s="94"/>
+      <c r="N29" s="94"/>
+      <c r="O29" s="94"/>
       <c r="P29" s="31"/>
       <c r="Q29" s="53"/>
       <c r="R29" s="53"/>
@@ -3533,6 +3526,17 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="R24:S24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:G27"/>
     <mergeCell ref="L27:O27"/>
@@ -3545,19 +3549,8 @@
     <mergeCell ref="H24:J24"/>
     <mergeCell ref="K24:O24"/>
     <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
@@ -3571,11 +3564,12 @@
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{B80B22E6-6928-44D7-BF33-2D2339A3EAD3}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{2CEFD9A1-7256-4CC0-A14B-05D2869A5C81}"/>
     <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{35AD5D22-1DAF-4594-AD05-7CB9953F9873}"/>
-    <hyperlink ref="C19" location="Residente!A5" display="identificador" xr:uid="{44C56CF5-7141-4A21-B9BC-308CD3AA36CE}"/>
+    <hyperlink ref="C22" location="Residente!A9" display="numeroDocumento" xr:uid="{44C56CF5-7141-4A21-B9BC-308CD3AA36CE}"/>
     <hyperlink ref="I13" r:id="rId1" xr:uid="{DB94A35C-D1D9-4791-A75D-DEEACCA61A6F}"/>
-    <hyperlink ref="C20" location="Residente!A9" display="numeroID" xr:uid="{95281040-7DB2-4E3A-8C93-8D6AA71D6775}"/>
-    <hyperlink ref="C22" location="Residente!A13" display="correo" xr:uid="{B15B23D6-B740-4D59-9192-BEB377392DC9}"/>
-    <hyperlink ref="C21" location="Residente!A11" display="numeroContacto" xr:uid="{3F300411-4BD6-4CDE-B8C8-7ADAB2309295}"/>
+    <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{A920818D-F9BB-43C7-8C7F-E02D95D9364D}"/>
+    <hyperlink ref="C19" location="Residente!A6" display="nombre" xr:uid="{1CBC68C4-BE94-4F2E-83D7-6456A248648E}"/>
+    <hyperlink ref="C20" location="Residente!A7" display="apellido" xr:uid="{14A0404A-8C91-4446-8FC5-A389C06298D8}"/>
+    <hyperlink ref="C21" location="Residente!A8" display="tipoDocumento" xr:uid="{54E136A1-DFED-46E9-8B2D-B46752A571BA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -3599,7 +3593,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3630,73 +3624,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="80"/>
-      <c r="L1" s="80"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="80"/>
-      <c r="O1" s="80"/>
-      <c r="P1" s="80"/>
-      <c r="Q1" s="80"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="81" t="str">
+      <c r="B2" s="71" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
-      <c r="P2" s="81"/>
-      <c r="Q2" s="81"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="82" t="str">
+      <c r="B3" s="72" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="82"/>
-      <c r="N3" s="82"/>
-      <c r="O3" s="82"/>
-      <c r="P3" s="82"/>
-      <c r="Q3" s="82"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
@@ -3814,7 +3808,7 @@
     </row>
     <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="23" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>8</v>
@@ -3830,7 +3824,7 @@
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="25" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="26"/>
@@ -3850,7 +3844,7 @@
         <v>42</v>
       </c>
       <c r="Q6" s="25" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="R6" s="28"/>
       <c r="S6" s="29"/>
@@ -3859,10 +3853,10 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="23" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -3889,7 +3883,7 @@
         <v>42</v>
       </c>
       <c r="Q7" s="25" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="R7" s="28"/>
       <c r="S7" s="29"/>
@@ -3898,10 +3892,10 @@
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
@@ -3918,7 +3912,7 @@
       <c r="O8" s="24"/>
       <c r="P8" s="24"/>
       <c r="Q8" s="25" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="R8" s="28"/>
       <c r="S8" s="29"/>
@@ -3927,11 +3921,11 @@
     </row>
     <row r="9" spans="1:21" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="97"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
@@ -3945,79 +3939,79 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="90" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="88" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" s="105" t="s">
+      <c r="A12" s="98" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="59" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="104"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="105" t="s">
-        <v>101</v>
+      <c r="A13" s="99"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="59" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="104"/>
-      <c r="B14" s="103"/>
-      <c r="C14" s="105" t="s">
-        <v>102</v>
+      <c r="A14" s="99"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="59" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="91"/>
-      <c r="B15" s="89"/>
+      <c r="A15" s="100"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="86" t="s">
+      <c r="A17" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="77"/>
+      <c r="C17" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70" t="s">
+      <c r="D17" s="77"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="77"/>
+      <c r="G17" s="77"/>
+      <c r="H17" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70" t="s">
+      <c r="I17" s="77"/>
+      <c r="J17" s="77"/>
+      <c r="K17" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70" t="s">
+      <c r="L17" s="77"/>
+      <c r="M17" s="77"/>
+      <c r="N17" s="77"/>
+      <c r="O17" s="77"/>
+      <c r="P17" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70" t="s">
+      <c r="Q17" s="77"/>
+      <c r="R17" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="S17" s="71"/>
+      <c r="S17" s="83"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
+      <c r="A18" s="78"/>
+      <c r="B18" s="79"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
       <c r="H18" s="35" t="s">
         <v>59</v>
       </c>
@@ -4030,12 +4024,12 @@
       <c r="K18" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="72" t="s">
+      <c r="L18" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="35" t="s">
         <v>61</v>
       </c>
@@ -4050,92 +4044,92 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
+      <c r="A19" s="84" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
       <c r="H19" s="14"/>
       <c r="I19" s="12"/>
       <c r="J19" s="13"/>
       <c r="K19" s="12"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="86"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14"/>
       <c r="R19" s="14"/>
       <c r="S19" s="37"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="77"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="40"/>
       <c r="I20" s="38"/>
       <c r="J20" s="39"/>
       <c r="K20" s="41"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
       <c r="P20" s="29"/>
       <c r="Q20" s="42"/>
       <c r="R20" s="42"/>
       <c r="S20" s="43"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="89"/>
+      <c r="E21" s="89"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="89"/>
       <c r="H21" s="45"/>
       <c r="I21" s="46"/>
       <c r="J21" s="44"/>
       <c r="K21" s="47"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
+      <c r="N21" s="90"/>
+      <c r="O21" s="90"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="48"/>
       <c r="R21" s="48"/>
       <c r="S21" s="49"/>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="51"/>
       <c r="I22" s="52"/>
       <c r="J22" s="50"/>
       <c r="K22" s="51"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
+      <c r="L22" s="94"/>
+      <c r="M22" s="94"/>
+      <c r="N22" s="94"/>
+      <c r="O22" s="94"/>
       <c r="P22" s="31"/>
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
@@ -4143,12 +4137,12 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="A20:B20"/>
@@ -4162,12 +4156,12 @@
     <mergeCell ref="C17:G18"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{ABE5976C-7405-4C29-983F-966BEFED6A8B}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uconet-my.sharepoint.com/personal/juan_avendano1956_uco_net_co/Documents/Documents/victus-doc/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{ABFC273F-1EC1-4D7E-8700-159149DAF5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8E375C8-E4CF-48DB-AFB0-AF7FF4698801}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F3C9D-C599-42FA-862C-BA12D7E41A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11784" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Residente" sheetId="3" r:id="rId4"/>
     <sheet name="Inmueble" sheetId="5" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -474,7 +477,7 @@
     <author>Usuario 207</author>
   </authors>
   <commentList>
-    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{F060D595-2CB6-4923-A12A-5A47044A22B4}">
+    <comment ref="A4" authorId="0" shapeId="0" xr:uid="{8E5A7F26-55AB-4461-9552-64468FD2CB08}">
       <text>
         <r>
           <rPr>
@@ -498,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{94E98851-11E7-456E-8C54-652AACC2C417}">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{16E78EA4-6E75-4823-8EF8-3D9501063EDC}">
       <text>
         <r>
           <rPr>
@@ -529,7 +532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{D8EF984E-F979-46E8-9517-5F2BED7B2C4F}">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{732F2D1C-E05F-47E4-B622-0E9F1E628359}">
       <text>
         <r>
           <rPr>
@@ -553,7 +556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{18FF8A2D-D60A-4B93-A8C0-E464393113B5}">
+    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{D106619C-0C2B-4A95-B833-7336D8FA348F}">
       <text>
         <r>
           <rPr>
@@ -578,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{DDB37856-03C8-42D1-A2AD-FDFCB83300B0}">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{9312D873-8788-428B-965D-138FD43D1BEE}">
       <text>
         <r>
           <rPr>
@@ -602,7 +605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{BC00F5AE-2FB0-4E38-8976-4ED6392612BF}">
+    <comment ref="F4" authorId="0" shapeId="0" xr:uid="{41BE9D19-14F7-4E4B-AACF-C641570714D9}">
       <text>
         <r>
           <rPr>
@@ -628,7 +631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{3CAAA11C-E888-4072-8BD7-C4953B522A78}">
+    <comment ref="G4" authorId="0" shapeId="0" xr:uid="{4C452012-72AE-456B-A61A-3C34CD4778CD}">
       <text>
         <r>
           <rPr>
@@ -652,7 +655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{9F5AF362-D1FA-431D-81D0-4719E4217C83}">
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{EAD52B87-53BE-4AB9-84D4-DBECF0B0435F}">
       <text>
         <r>
           <rPr>
@@ -677,7 +680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{B270ACA7-7095-49A9-B7FE-02239606CCA2}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{2AC8D3D5-5AA5-44F2-9A26-DFEEDC36A163}">
       <text>
         <r>
           <rPr>
@@ -701,7 +704,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{FDCD7C4E-09B5-45DA-8CF9-744DAAD006C4}">
+    <comment ref="J4" authorId="0" shapeId="0" xr:uid="{C78C384D-9D8C-40C2-9DA3-1E7CB3C67D0D}">
       <text>
         <r>
           <rPr>
@@ -725,7 +728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{B56DD421-6EFC-4F8D-9AD7-732E8B73436C}">
+    <comment ref="K4" authorId="0" shapeId="0" xr:uid="{F61CF7D6-44BB-4253-BBD1-8F469187A65A}">
       <text>
         <r>
           <rPr>
@@ -749,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{3B546DEB-BF60-49FF-B7BE-DBC90AC00886}">
+    <comment ref="L4" authorId="0" shapeId="0" xr:uid="{A4C167E0-54FA-4878-9D2D-D9B364DBA04D}">
       <text>
         <r>
           <rPr>
@@ -773,7 +776,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{057CE27F-BFDC-40EB-A447-F44132600FA4}">
+    <comment ref="M4" authorId="0" shapeId="0" xr:uid="{A7546010-3858-4F6A-850C-86A1105798B2}">
       <text>
         <r>
           <rPr>
@@ -797,7 +800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{F745B196-15E0-452D-98C0-0FFFBD1725D1}">
+    <comment ref="N4" authorId="0" shapeId="0" xr:uid="{8C5CA09B-1302-4548-958B-FD03D3CA0BF4}">
       <text>
         <r>
           <rPr>
@@ -821,7 +824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{09388373-815B-4382-A6B3-163E1C832D0B}">
+    <comment ref="O4" authorId="0" shapeId="0" xr:uid="{780E9202-C88A-4CF5-97C8-6594A7F1B012}">
       <text>
         <r>
           <rPr>
@@ -845,7 +848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{51F02AAB-4402-4D4A-B19B-4B7C26EB12A7}">
+    <comment ref="P4" authorId="0" shapeId="0" xr:uid="{AB6A1242-BA51-4F4E-902B-0CA4C2EECE40}">
       <text>
         <r>
           <rPr>
@@ -869,7 +872,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{D668575E-F970-4B14-A7CB-35FAAF494CB0}">
+    <comment ref="Q4" authorId="0" shapeId="0" xr:uid="{B2C52077-0F03-4B01-91DE-6BAD925EF0B4}">
       <text>
         <r>
           <rPr>
@@ -898,7 +901,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -1029,27 +1032,18 @@
     <t>No</t>
   </si>
   <si>
-    <t>Identifica de forma unívoca a cada una de las reservas.</t>
-  </si>
-  <si>
     <t>nombre</t>
   </si>
   <si>
     <t>Sólo letras y espacios</t>
   </si>
   <si>
-    <t>Representa el nombre de un residente determinado.</t>
-  </si>
-  <si>
     <t>sólo números enteros</t>
   </si>
   <si>
     <t>Quitar espacios en blanco al inicio, al final, y entre números</t>
   </si>
   <si>
-    <t>Representa el número de contacto de un residente determinado.</t>
-  </si>
-  <si>
     <t>Combinaciones únicas</t>
   </si>
   <si>
@@ -1107,48 +1101,21 @@
     <t>Residentes</t>
   </si>
   <si>
-    <t>correo</t>
-  </si>
-  <si>
     <t>xxxxxxxxxxxxxxxxxx@xxxxxxxxx.com  donde cada x representa un digito del 0 al 9 o una letra de la "A" a la "Z" y debe terminas en .com o .co</t>
   </si>
   <si>
-    <t>Representa el correo del residente el cual va a realizar la reserva.</t>
-  </si>
-  <si>
     <t>apellido</t>
   </si>
   <si>
-    <t>puedeReservar</t>
-  </si>
-  <si>
     <t>fechaNacimiento</t>
   </si>
   <si>
     <t>inmueble</t>
   </si>
   <si>
-    <t>numeroDeContacto</t>
-  </si>
-  <si>
-    <t>Identifica de forma unívoca a cada uno de los residentes de un conjunto residencial.</t>
-  </si>
-  <si>
-    <t>Representa el apellido de un residente determinado.</t>
-  </si>
-  <si>
-    <t>Representa el número de registro unico registrado según su nacionalidad y edad determinada.</t>
-  </si>
-  <si>
-    <t>Representa la fecha de nacimiento del residente.</t>
-  </si>
-  <si>
     <t>Representa el lugar donde vive el residente dentro del conjunto residencial.</t>
   </si>
   <si>
-    <t>Representa si el residente puede hacer reservar o no.</t>
-  </si>
-  <si>
     <t>(MM/dd/aaaa)</t>
   </si>
   <si>
@@ -1173,24 +1140,9 @@
     <t>Sólo letras que pueden ser mayúsculas o minusculas, números y los caracteres especiales.</t>
   </si>
   <si>
-    <t>Sólo un valor booleano Si/No</t>
-  </si>
-  <si>
-    <t>Si cuando pueda reservar y No cuando no pueda reservar.</t>
-  </si>
-  <si>
     <t>Debe contener al menos una minuscula un carácter especial y un número, No puede contener espacios.</t>
   </si>
   <si>
-    <t>Representa el tipo de documento de identidad que puede tener un residente.</t>
-  </si>
-  <si>
-    <t>Representa la contraseña de acceso que tiene un residente para poder ingresar a la aplicación de reservas.</t>
-  </si>
-  <si>
-    <t>numeroID</t>
-  </si>
-  <si>
     <t>tipoInmueble</t>
   </si>
   <si>
@@ -1206,32 +1158,86 @@
     <t>Entero</t>
   </si>
   <si>
-    <t>Representa el tipo de inmueble que es un inmueble.</t>
-  </si>
-  <si>
-    <t>Representa el numero que identifica el inmueble dentro de una misma zona Inmueble.</t>
-  </si>
-  <si>
     <t>Representa la zona dónde se encuentran varios inmuebles.</t>
   </si>
   <si>
-    <t>Identificador de inmueble</t>
-  </si>
-  <si>
-    <t>No es posible tener más de un inmueble con la misma zona inmueble, el mismo tipo inmueble, el mismo numero de vivienda, con el mismo identificador.</t>
-  </si>
-  <si>
-    <t>No es posible tener más de un residente con el mismo nombre, apellido, tipo de documento y numero documento para el mismo inmueble.</t>
-  </si>
-  <si>
     <t>numeroDocumento</t>
+  </si>
+  <si>
+    <t>numeroContacto</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada residente sea único.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el nombre del residente.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el apellido de un residente</t>
+  </si>
+  <si>
+    <t>este dato representa en forma textual , que tipo de documento tiene el residente como TI, CC, RC, PASS.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa el numero único del documento de un residente.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa la fecha de nacimiento que tiene un residente.</t>
+  </si>
+  <si>
+    <t>Este dato representa el número de contacto de un residente.</t>
+  </si>
+  <si>
+    <t>Este dato representa el correo electrónico de un residente</t>
+  </si>
+  <si>
+    <t>este dato representa la contraseña con la que ingresa el residente</t>
+  </si>
+  <si>
+    <t>Combinación única 1</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo tipo de documento y el mismo número de documento.</t>
+  </si>
+  <si>
+    <t>Combinación única 2</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo número de contacto</t>
+  </si>
+  <si>
+    <t>No puede haber mas de un residente con el mismo correo.</t>
+  </si>
+  <si>
+    <t>correoElectronico</t>
+  </si>
+  <si>
+    <t>Número de contacto del residente</t>
+  </si>
+  <si>
+    <t>Correo electronico del residente</t>
+  </si>
+  <si>
+    <t>Es un dato que hace que cada inmueble sea único.</t>
+  </si>
+  <si>
+    <t>Es un dato que representa al nombre de un inmueble Casa, apartamento ETC.</t>
+  </si>
+  <si>
+    <t>Este atributo representa el número especifico del inmueble.</t>
+  </si>
+  <si>
+    <t>Ubicación unica de un inmueble</t>
+  </si>
+  <si>
+    <t>No es posible tener mas de un tipo inmueble que tenga el mismo número de vivienda más la misma zona inmueble.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1292,6 +1298,23 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1349,7 +1372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1500,7 +1523,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -1519,227 +1542,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -1747,7 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1759,9 +1565,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1834,15 +1637,9 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1903,20 +1700,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="21" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1930,11 +1715,53 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1957,114 +1784,36 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="29" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2129,8 +1878,47 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId3"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Valores"/>
+      <sheetName val="Modelo Dominio Anemico Contexto"/>
+      <sheetName val="Listado Objetos Dominio"/>
+      <sheetName val="ConjuntoResidencial"/>
+      <sheetName val="ZonaComun"/>
+      <sheetName val="Administrador"/>
+      <sheetName val="ZonaInmueble"/>
+      <sheetName val="Inmueble"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>Inmueble</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2452,17 +2240,17 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
+      <c r="B1" s="54"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2554,7 +2342,7 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2565,70 +2353,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB7FA3B-591F-4E21-A008-4E9729EA1949}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="8"/>
+    <col min="1" max="1" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="63"/>
+      <c r="B1" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="64" t="str">
+      <c r="D3" s="57" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" s="14" t="str">
+      <c r="A4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="13" t="str">
         <f>Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2644,932 +2430,956 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD2E3E-2179-4007-8743-BED3F3BF1317}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:U28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.77734375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="78" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="72" t="str">
+      <c r="B3" s="79" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="19" t="str">
+      <c r="R4" s="18" t="str">
+        <f>A25</f>
+        <v>Reponsabilidad 1</v>
+      </c>
+      <c r="S4" s="19" t="str">
         <f>A26</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="20" t="str">
+        <v>Reponsabilidad 2</v>
+      </c>
+      <c r="T4" s="20" t="str">
         <f>A27</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="21" t="str">
+        <v>Reponsabilidad 3</v>
+      </c>
+      <c r="U4" s="21" t="str">
         <f>A28</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="22" t="str">
-        <f>A29</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>32</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>32</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="24" t="s">
+      <c r="O5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="25" t="s">
+      <c r="Q5" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="23">
+        <v>1</v>
+      </c>
+      <c r="D6" s="23">
+        <v>50</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>50</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="23">
+        <v>1</v>
+      </c>
+      <c r="D8" s="23">
+        <v>50</v>
+      </c>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="23"/>
+      <c r="K8" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="R9" s="27"/>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="R10" s="27"/>
+      <c r="S10" s="28"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="23"/>
+      <c r="K11" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="R11" s="27"/>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29"/>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="23">
+        <v>6</v>
+      </c>
+      <c r="D12" s="23">
+        <v>50</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="R12" s="27"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="23">
+        <v>8</v>
+      </c>
+      <c r="D13" s="23">
+        <v>30</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="R13" s="27"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="29"/>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="31"/>
-    </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="24">
-        <v>1</v>
-      </c>
-      <c r="D6" s="24">
+      <c r="J14" s="23"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="R14" s="27"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="E16" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="I16" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="31"/>
-    </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="24">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24">
-        <v>50</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
-    </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="B18" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="82" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="85" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" s="85" t="s">
+        <v>100</v>
+      </c>
+      <c r="G18" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" s="24">
-        <v>50</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="24"/>
-      <c r="K8" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L8" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="31"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-      <c r="U9" s="31"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-      <c r="U10" s="31"/>
-    </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="31"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="24">
-        <v>1</v>
-      </c>
-      <c r="D12" s="24">
-        <v>40</v>
-      </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-      <c r="U12" s="31"/>
-    </row>
-    <row r="13" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="24">
-        <v>6</v>
-      </c>
-      <c r="D13" s="24">
-        <v>50</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P13" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="29"/>
-      <c r="T13" s="30"/>
-      <c r="U13" s="31"/>
-    </row>
-    <row r="14" spans="1:21" ht="69" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="24">
-        <v>8</v>
-      </c>
-      <c r="D14" s="24">
-        <v>30</v>
-      </c>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P14" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="R14" s="28"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="30"/>
-      <c r="U14" s="31"/>
-    </row>
-    <row r="15" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="J15" s="24"/>
-      <c r="K15" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q15" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="31"/>
-    </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
+      <c r="H18" s="86"/>
+      <c r="I18" s="84" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>101</v>
+      </c>
+      <c r="K18" s="82" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="82"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="82"/>
+    </row>
+    <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="85"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="82"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="85"/>
+      <c r="K20" s="82"/>
+    </row>
+    <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="84"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="82"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="82"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="85"/>
+      <c r="K21" s="82"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="80" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B23" s="67"/>
+      <c r="C23" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="57" t="s">
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102" t="s">
+      <c r="I23" s="67"/>
+      <c r="J23" s="67"/>
+      <c r="K23" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="80" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="103"/>
-      <c r="B20" s="81"/>
-      <c r="C20" s="107" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="103"/>
-      <c r="B21" s="81"/>
-      <c r="C21" s="58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="25.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="104"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="106" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="67"/>
+      <c r="N23" s="67"/>
+      <c r="O23" s="67"/>
+      <c r="P23" s="67" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" s="67"/>
+      <c r="R23" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="S23" s="68"/>
+    </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="76" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77" t="s">
+      <c r="A24" s="81"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J24" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="L24" s="77"/>
-      <c r="M24" s="77"/>
-      <c r="N24" s="77"/>
-      <c r="O24" s="77"/>
-      <c r="P24" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q24" s="77"/>
-      <c r="R24" s="77" t="s">
+      <c r="K24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L24" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M24" s="69"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="69"/>
+      <c r="P24" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="S24" s="83"/>
+      <c r="Q24" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="S24" s="33" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="79"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L25" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="79"/>
-      <c r="P25" s="35" t="s">
+      <c r="A25" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Q25" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R25" s="35" t="s">
+      <c r="B25" s="71"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
+      <c r="F25" s="72"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="72"/>
+      <c r="M25" s="72"/>
+      <c r="N25" s="72"/>
+      <c r="O25" s="72"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="34"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="S25" s="36" t="s">
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="75"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="39"/>
+      <c r="R26" s="39"/>
+      <c r="S26" s="40"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="84" t="s">
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="44"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="45"/>
+      <c r="R27" s="45"/>
+      <c r="S27" s="46"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="85"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="86"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="37"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B27" s="67"/>
-      <c r="C27" s="68"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="68"/>
-      <c r="G27" s="68"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="69"/>
-      <c r="M27" s="69"/>
-      <c r="N27" s="69"/>
-      <c r="O27" s="69"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="42"/>
-      <c r="S27" s="43"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="46"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="90"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="90"/>
-      <c r="O28" s="90"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="30"/>
-      <c r="Q28" s="48"/>
-      <c r="R28" s="48"/>
-      <c r="S28" s="49"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="93"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="93"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="50"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="53"/>
-      <c r="R29" s="53"/>
-      <c r="S29" s="54"/>
+      <c r="Q28" s="50"/>
+      <c r="R28" s="50"/>
+      <c r="S28" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="35">
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:G24"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:O23"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E18:E21"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:G28"/>
     <mergeCell ref="L28:O28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="R24:S24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A24:B25"/>
-    <mergeCell ref="C24:G25"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:O24"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
-    <hyperlink ref="I29" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{76F12625-B198-4C45-B316-89AD33070AE0}"/>
+    <hyperlink ref="I28" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{76F12625-B198-4C45-B316-89AD33070AE0}"/>
     <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{4616484A-1A8A-4DB6-940E-8291C6AB0942}"/>
     <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{E3F528BF-39F4-4A77-A086-121A7620B9F7}"/>
     <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{84031BE7-BD4B-4472-A1D3-49634C93D82C}"/>
-    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{57BB2E48-0EF6-4E31-8A3C-C7CC98745FF9}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{A7849B7E-A984-439D-AC57-2AF622631983}"/>
-    <hyperlink ref="A29:B29" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{BA0AA56C-D662-4271-912B-1B000C27B93A}"/>
+    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{57BB2E48-0EF6-4E31-8A3C-C7CC98745FF9}"/>
+    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{A7849B7E-A984-439D-AC57-2AF622631983}"/>
+    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{BA0AA56C-D662-4271-912B-1B000C27B93A}"/>
     <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{B80B22E6-6928-44D7-BF33-2D2339A3EAD3}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{2CEFD9A1-7256-4CC0-A14B-05D2869A5C81}"/>
-    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{35AD5D22-1DAF-4594-AD05-7CB9953F9873}"/>
-    <hyperlink ref="C22" location="Residente!A9" display="numeroDocumento" xr:uid="{44C56CF5-7141-4A21-B9BC-308CD3AA36CE}"/>
-    <hyperlink ref="I13" r:id="rId1" xr:uid="{DB94A35C-D1D9-4791-A75D-DEEACCA61A6F}"/>
+    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{35AD5D22-1DAF-4594-AD05-7CB9953F9873}"/>
+    <hyperlink ref="C20" location="Residente!A9" display="numeroDocumento" xr:uid="{44C56CF5-7141-4A21-B9BC-308CD3AA36CE}"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{DB94A35C-D1D9-4791-A75D-DEEACCA61A6F}"/>
     <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{A920818D-F9BB-43C7-8C7F-E02D95D9364D}"/>
-    <hyperlink ref="C19" location="Residente!A6" display="nombre" xr:uid="{1CBC68C4-BE94-4F2E-83D7-6456A248648E}"/>
-    <hyperlink ref="C20" location="Residente!A7" display="apellido" xr:uid="{14A0404A-8C91-4446-8FC5-A389C06298D8}"/>
-    <hyperlink ref="C21" location="Residente!A8" display="tipoDocumento" xr:uid="{54E136A1-DFED-46E9-8B2D-B46752A571BA}"/>
+    <hyperlink ref="C18" location="Residente!A8" display="tipoDocumento" xr:uid="{54E136A1-DFED-46E9-8B2D-B46752A571BA}"/>
+    <hyperlink ref="G18:G21" location="Residente!A11" display="numeroContacto" xr:uid="{822FB009-8280-411A-ABA3-9ECC828AF1D7}"/>
+    <hyperlink ref="K18:K21" location="Residente!A12" display="correoElectronico" xr:uid="{6CEB801B-74BD-4ACB-ADC9-1B88A785F9B9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -3580,7 +3390,7 @@
           <x14:formula1>
             <xm:f>Valores!$A$7:$A$15</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B15</xm:sqref>
+          <xm:sqref>B5:B13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3592,557 +3402,559 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE91583B-F698-4020-97FF-1414BFE2C5EB}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="8" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="8" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="8"/>
+    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="str">
-        <f>'Listado Objetos de Dominio'!A4</f>
+      <c r="B2" s="78" t="str">
+        <f>'[1]Listado Objetos Dominio'!A7</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="72" t="str">
-        <f>'Listado Objetos de Dominio'!B4</f>
-        <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
+      <c r="B3" s="79" t="str">
+        <f>'[1]Listado Objetos Dominio'!B7</f>
+        <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="O4" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="P4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="Q4" s="18" t="s">
+      <c r="Q4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="19" t="str">
+      <c r="R4" s="18" t="str">
         <f>A19</f>
         <v>Reponsabilidad 1</v>
       </c>
-      <c r="S4" s="20" t="str">
+      <c r="S4" s="19" t="str">
         <f>A20</f>
         <v>Reponsabilidad 2</v>
       </c>
-      <c r="T4" s="21" t="str">
+      <c r="T4" s="20" t="str">
         <f>A21</f>
         <v>Reponsabilidad 3</v>
       </c>
-      <c r="U4" s="22" t="str">
+      <c r="U4" s="21" t="str">
         <f>A22</f>
         <v>Reponsabilidad 4</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="23">
         <v>32</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="23">
         <v>32</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="25" t="s">
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="24" t="s">
+      <c r="M5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P5" s="24" t="s">
+      <c r="O5" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="31"/>
+      <c r="Q5" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="R5" s="27"/>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="30"/>
     </row>
     <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="24" t="s">
+      <c r="A6" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="23">
         <v>1</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="23">
         <v>20</v>
       </c>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="J6" s="24"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="24" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="23"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="R6" s="28"/>
-      <c r="S6" s="29"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="31"/>
+      <c r="O6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="R6" s="27"/>
+      <c r="S6" s="28"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="30"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="24" t="s">
+      <c r="A7" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
+        <v>50</v>
+      </c>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="O7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29"/>
-      <c r="T7" s="30"/>
-      <c r="U7" s="31"/>
+      <c r="O7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29"/>
+      <c r="U7" s="30"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25" t="s">
-        <v>104</v>
-      </c>
-      <c r="R8" s="28"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="31"/>
-    </row>
-    <row r="9" spans="1:21" ht="23.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+      <c r="A8" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="23"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="R8" s="27"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="97"/>
+      <c r="A10" s="83" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="33" t="s">
+      <c r="A11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34" t="s">
-        <v>52</v>
+      <c r="C11" s="31" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="98" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="80" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="59" t="s">
-        <v>39</v>
+      <c r="A12" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="82" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="99"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="59" t="s">
-        <v>97</v>
-      </c>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="82"/>
     </row>
     <row r="14" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="99"/>
-      <c r="B14" s="81"/>
-      <c r="C14" s="59" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="100"/>
-      <c r="B15" s="101"/>
-      <c r="C15" s="55" t="s">
-        <v>99</v>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="87" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="87" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="76" t="s">
+      <c r="A17" s="80" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="77" t="s">
+      <c r="Q17" s="67"/>
+      <c r="R17" s="67" t="s">
+        <v>55</v>
+      </c>
+      <c r="S17" s="68"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="81"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="77"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="77"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="77" t="s">
-        <v>55</v>
-      </c>
-      <c r="I17" s="77"/>
-      <c r="J17" s="77"/>
-      <c r="K17" s="77" t="s">
-        <v>56</v>
-      </c>
-      <c r="L17" s="77"/>
-      <c r="M17" s="77"/>
-      <c r="N17" s="77"/>
-      <c r="O17" s="77"/>
-      <c r="P17" s="77" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q17" s="77"/>
-      <c r="R17" s="77" t="s">
+      <c r="K18" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="L18" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="S17" s="83"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="78"/>
-      <c r="B18" s="79"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="35" t="s">
+      <c r="Q18" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="R18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="S18" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J18" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="K18" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="79" t="s">
-        <v>2</v>
-      </c>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
-      <c r="P18" s="35" t="s">
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="Q18" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="R18" s="35" t="s">
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="72"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="72"/>
+      <c r="M19" s="72"/>
+      <c r="N19" s="72"/>
+      <c r="O19" s="72"/>
+      <c r="P19" s="13"/>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="34"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="S18" s="36" t="s">
+      <c r="B20" s="74"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="28"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="40"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="59" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="84" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="61"/>
+      <c r="G21" s="61"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45"/>
+      <c r="S21" s="46"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="85"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="86"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="86"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="37"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
-      <c r="P20" s="29"/>
-      <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
-      <c r="S20" s="43"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="89"/>
-      <c r="E21" s="89"/>
-      <c r="F21" s="89"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="46"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
-      <c r="N21" s="90"/>
-      <c r="O21" s="90"/>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
-      <c r="S21" s="49"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="91" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="92"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="50"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="53"/>
-      <c r="S22" s="54"/>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="48"/>
+      <c r="L22" s="66"/>
+      <c r="M22" s="66"/>
+      <c r="N22" s="66"/>
+      <c r="O22" s="66"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="50"/>
+      <c r="R22" s="50"/>
+      <c r="S22" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
+  <mergeCells count="26">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="A20:B20"/>
@@ -4156,29 +3968,29 @@
     <mergeCell ref="C17:G18"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{ABE5976C-7405-4C29-983F-966BEFED6A8B}"/>
-    <hyperlink ref="I22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{4A81CE6A-086A-4490-80FA-E35A7B0F7C6B}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{613BB4E2-5025-42E8-A8B5-51EB1904B65B}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{FC03E6DC-A7AC-4A63-ADA3-1A6D7A9DD7E4}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{E96A1B3A-6DA7-4D05-8431-49C49A0CFBAC}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{2817B462-7A40-42A5-A695-E7A5968575EE}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{109FEC33-CBD1-493A-95B9-4F0A41E1BA68}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{C7BFE017-E2AA-4219-9589-8FC3E7983543}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{30D37CBA-0A18-4191-B07A-A77D8E7BBCCD}"/>
-    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{CC8E883B-B91B-4E61-BEFE-43255A25C51F}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{948B0400-A67D-467F-B4D6-0F4D93390C1C}"/>
-    <hyperlink ref="C15" location="Inmueble!A8" display="ZonaInmueble" xr:uid="{D6E44479-10BD-4357-9725-59837741068D}"/>
-    <hyperlink ref="C12" location="Inmueble!A5" display="identificador" xr:uid="{B5DF0124-05F0-4ACB-A663-B32E48DBE3B4}"/>
-    <hyperlink ref="C13" location="Inmueble!A6" display="tipoInmueble" xr:uid="{7D81F540-021E-41CD-905A-C3898B66BA42}"/>
-    <hyperlink ref="C14" location="Inmueble!A7" display="numeroVivienda" xr:uid="{26D49989-CF13-4814-97E7-5C905A5D5197}"/>
+    <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4C6EA31D-5DD1-42F9-A469-ED5E8CAE0643}"/>
+    <hyperlink ref="I22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{832C2C7D-CE9E-4F30-B722-0D6FA25E146B}"/>
+    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{2315669A-A2F3-4C62-A0E7-2908181E851D}"/>
+    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{9043A94A-88C0-4ADE-B1A2-79E882569B3D}"/>
+    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{F61874F6-1C42-4622-8E59-B59B3CDC0F2D}"/>
+    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{D8B4A7B2-48EA-4220-AEB3-1BD24ADA3F59}"/>
+    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{EC286AA4-E9A9-4BF3-B3B0-EAD186CE18F8}"/>
+    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{4DE32F42-888F-41E5-9B65-373BF1787437}"/>
+    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{E159E70F-4E2A-4B81-88B7-180EF236F4AF}"/>
+    <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{68117D6F-3D68-4E53-BDF0-9E2FE69EC82B}"/>
+    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{88B8D7F6-7CE9-490A-9A89-991C0E7873EF}"/>
+    <hyperlink ref="C15" location="Inmueble!A8" display="ZonaInmueble" xr:uid="{DB88250A-52A4-46B9-B641-D80D50936AFD}"/>
+    <hyperlink ref="C14" location="Inmueble!A7" display="numeroVivienda" xr:uid="{7C3EDB2F-89BF-494E-90D1-85A6C4411548}"/>
+    <hyperlink ref="C12" location="Inmueble!A6" display="tipoInmueble" xr:uid="{67F5311F-E219-4D10-B08A-00D1F447C35E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F3C9D-C599-42FA-862C-BA12D7E41A7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E4593-E791-4455-9E80-D1D50C723C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11784" windowHeight="12336" firstSheet="3" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Residente" sheetId="3" r:id="rId4"/>
     <sheet name="Inmueble" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1703,6 +1700,15 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1721,6 +1727,63 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1744,72 +1807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1876,45 +1873,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId3"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Valores"/>
-      <sheetName val="Modelo Dominio Anemico Contexto"/>
-      <sheetName val="Listado Objetos Dominio"/>
-      <sheetName val="ConjuntoResidencial"/>
-      <sheetName val="ZonaComun"/>
-      <sheetName val="Administrador"/>
-      <sheetName val="ZonaInmueble"/>
-      <sheetName val="Inmueble"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Inmueble</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2240,19 +2198,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="57"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2268,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2276,52 +2234,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2342,7 +2300,7 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2353,28 +2311,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB7FA3B-591F-4E21-A008-4E9729EA1949}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="56"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -2388,7 +2348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -2398,12 +2358,12 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="57" t="str">
+      <c r="D3" s="60" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
@@ -2414,7 +2374,7 @@
         <f>Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2436,103 +2396,103 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.77734375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="7"/>
+    <col min="17" max="17" width="94.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="71" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="72" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -2601,7 +2561,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="52" t="s">
         <v>39</v>
       </c>
@@ -2646,7 +2606,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="30"/>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -2693,7 +2653,7 @@
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>67</v>
       </c>
@@ -2740,7 +2700,7 @@
       <c r="T7" s="29"/>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>75</v>
       </c>
@@ -2787,7 +2747,7 @@
       <c r="T8" s="29"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
         <v>86</v>
       </c>
@@ -2828,7 +2788,7 @@
       <c r="T9" s="29"/>
       <c r="U9" s="30"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
         <v>68</v>
       </c>
@@ -2869,7 +2829,7 @@
       <c r="T10" s="29"/>
       <c r="U10" s="30"/>
     </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
         <v>87</v>
       </c>
@@ -2912,7 +2872,7 @@
       <c r="T11" s="29"/>
       <c r="U11" s="30"/>
     </row>
-    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>102</v>
       </c>
@@ -2959,7 +2919,7 @@
       <c r="T12" s="29"/>
       <c r="U12" s="30"/>
     </row>
-    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>76</v>
       </c>
@@ -3006,7 +2966,7 @@
       <c r="T13" s="29"/>
       <c r="U13" s="30"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -3047,24 +3007,24 @@
       <c r="T14" s="29"/>
       <c r="U14" s="30"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="83" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="E16" s="83" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="E16" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="I16" s="83" t="s">
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="I16" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
         <v>48</v>
       </c>
@@ -3093,114 +3053,114 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="84" t="s">
+    <row r="18" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="85" t="s">
+      <c r="B18" s="63" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="63" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="85" t="s">
+      <c r="F18" s="63" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="82" t="s">
+      <c r="G18" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="86"/>
-      <c r="I18" s="84" t="s">
+      <c r="H18" s="54"/>
+      <c r="I18" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="85" t="s">
+      <c r="J18" s="63" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="82" t="s">
+      <c r="K18" s="62" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="82"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="82"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="84"/>
-      <c r="J19" s="85"/>
-      <c r="K19" s="82"/>
-    </row>
-    <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="84"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="82" t="s">
+    <row r="19" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="65"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="62"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="65"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="82"/>
-      <c r="I20" s="84"/>
-      <c r="J20" s="85"/>
-      <c r="K20" s="82"/>
-    </row>
-    <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="84"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="82"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="82"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="85"/>
-      <c r="K21" s="82"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="80" t="s">
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="62"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="65"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="62"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="62"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67" t="s">
+      <c r="B23" s="74"/>
+      <c r="C23" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67" t="s">
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67" t="s">
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67" t="s">
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="74"/>
+      <c r="O23" s="74"/>
+      <c r="P23" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="67"/>
-      <c r="R23" s="67" t="s">
+      <c r="Q23" s="74"/>
+      <c r="R23" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="68"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="81"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
+      <c r="S23" s="77"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
       <c r="H24" s="32" t="s">
         <v>56</v>
       </c>
@@ -3213,12 +3173,12 @@
       <c r="K24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="69" t="s">
+      <c r="L24" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="69"/>
-      <c r="N24" s="69"/>
-      <c r="O24" s="69"/>
+      <c r="M24" s="76"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="76"/>
       <c r="P24" s="32" t="s">
         <v>58</v>
       </c>
@@ -3232,93 +3192,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="80"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="80"/>
+      <c r="G25" s="80"/>
       <c r="H25" s="13"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="72"/>
-      <c r="M25" s="72"/>
-      <c r="N25" s="72"/>
-      <c r="O25" s="72"/>
+      <c r="L25" s="80"/>
+      <c r="M25" s="80"/>
+      <c r="N25" s="80"/>
+      <c r="O25" s="80"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="34"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="73" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
+      <c r="B26" s="67"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="68"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="37"/>
       <c r="I26" s="35"/>
       <c r="J26" s="36"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="69"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
       <c r="S26" s="40"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="83"/>
+      <c r="G27" s="83"/>
       <c r="H27" s="42"/>
       <c r="I27" s="43"/>
       <c r="J27" s="41"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="45"/>
       <c r="R27" s="45"/>
       <c r="S27" s="46"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="63" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="65"/>
-      <c r="G28" s="65"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="87"/>
       <c r="H28" s="48"/>
       <c r="I28" s="49"/>
       <c r="J28" s="47"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="66"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
+      <c r="L28" s="88"/>
+      <c r="M28" s="88"/>
+      <c r="N28" s="88"/>
+      <c r="O28" s="88"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
@@ -3326,16 +3286,17 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
     <mergeCell ref="L26:O26"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3350,17 +3311,16 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E18:E21"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="F18:F21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
@@ -3403,106 +3363,106 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:Q1"/>
+      <selection activeCell="B3" sqref="B3:Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="7"/>
+    <col min="17" max="17" width="94.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="str">
-        <f>'[1]Listado Objetos Dominio'!A7</f>
+      <c r="B2" s="71" t="str">
+        <f>'Listado Objetos de Dominio'!A4</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="79" t="str">
-        <f>'[1]Listado Objetos Dominio'!B7</f>
-        <v>Objeto de dominio que representa un imnueble dentro de una zona de inmuebles en un conjunto residencial describe las caracteristicas especificasde una unidad habitacional en el contexto de una agrupación más amplia, como una torre, bloque o área específica, que es representada por su zona inmueble.</v>
-      </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="72" t="str">
+        <f>'Listado Objetos de Dominio'!B4</f>
+        <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -3571,7 +3531,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
@@ -3616,7 +3576,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="30"/>
     </row>
-    <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>80</v>
       </c>
@@ -3661,7 +3621,7 @@
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
@@ -3704,7 +3664,7 @@
       <c r="T7" s="29"/>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
@@ -3733,15 +3693,15 @@
       <c r="T8" s="29"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="83" t="s">
+    <row r="9" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="31" t="s">
         <v>48</v>
       </c>
@@ -3752,78 +3712,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="63" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="82" t="s">
+      <c r="C12" s="62" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="82"/>
-    </row>
-    <row r="14" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="87" t="s">
+    <row r="13" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="63"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="62"/>
+    </row>
+    <row r="14" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="87" t="s">
+    <row r="15" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="63"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="80" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67" t="s">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67" t="s">
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="74" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67" t="s">
+      <c r="I17" s="74"/>
+      <c r="J17" s="74"/>
+      <c r="K17" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67" t="s">
+      <c r="L17" s="74"/>
+      <c r="M17" s="74"/>
+      <c r="N17" s="74"/>
+      <c r="O17" s="74"/>
+      <c r="P17" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="67"/>
-      <c r="R17" s="67" t="s">
+      <c r="Q17" s="74"/>
+      <c r="R17" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="68"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="81"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
+      <c r="S17" s="77"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="75"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
       <c r="H18" s="32" t="s">
         <v>56</v>
       </c>
@@ -3836,12 +3796,12 @@
       <c r="K18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="69" t="s">
+      <c r="L18" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="69"/>
-      <c r="O18" s="69"/>
+      <c r="M18" s="76"/>
+      <c r="N18" s="76"/>
+      <c r="O18" s="76"/>
       <c r="P18" s="32" t="s">
         <v>58</v>
       </c>
@@ -3855,93 +3815,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="71"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="34"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="73" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
+      <c r="B20" s="67"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
       <c r="H20" s="37"/>
       <c r="I20" s="35"/>
       <c r="J20" s="36"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="69"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61"/>
+      <c r="B21" s="82"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="83"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="83"/>
       <c r="H21" s="42"/>
       <c r="I21" s="43"/>
       <c r="J21" s="41"/>
       <c r="K21" s="44"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
+      <c r="L21" s="84"/>
+      <c r="M21" s="84"/>
+      <c r="N21" s="84"/>
+      <c r="O21" s="84"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="63" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="87"/>
       <c r="H22" s="48"/>
       <c r="I22" s="49"/>
       <c r="J22" s="47"/>
       <c r="K22" s="48"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
+      <c r="L22" s="88"/>
+      <c r="M22" s="88"/>
+      <c r="N22" s="88"/>
+      <c r="O22" s="88"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
@@ -3949,12 +3909,13 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="A20:B20"/>
@@ -3968,13 +3929,12 @@
     <mergeCell ref="C17:G18"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4C6EA31D-5DD1-42F9-A469-ED5E8CAE0643}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4E4593-E791-4455-9E80-D1D50C723C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9D03A-DE01-40F9-B98E-CDD20DFEBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="3" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
+    <workbookView minimized="1" xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -1727,86 +1727,86 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2198,19 +2198,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="57"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2234,52 +2234,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2300,7 +2300,7 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2315,16 +2315,16 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>16</v>
       </c>
@@ -2334,7 +2334,7 @@
       <c r="C1" s="58"/>
       <c r="D1" s="59"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>Residentes</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>72</v>
       </c>
@@ -2396,103 +2396,103 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="7"/>
+    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="78" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="72" t="str">
+      <c r="B3" s="79" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="52" t="s">
         <v>39</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="30"/>
     </row>
-    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>43</v>
       </c>
@@ -2653,7 +2653,7 @@
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>67</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="T7" s="29"/>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>75</v>
       </c>
@@ -2747,7 +2747,7 @@
       <c r="T8" s="29"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>86</v>
       </c>
@@ -2788,7 +2788,7 @@
       <c r="T9" s="29"/>
       <c r="U9" s="30"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>68</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="T10" s="29"/>
       <c r="U10" s="30"/>
     </row>
-    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>87</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="T11" s="29"/>
       <c r="U11" s="30"/>
     </row>
-    <row r="12" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>102</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="T12" s="29"/>
       <c r="U12" s="30"/>
     </row>
-    <row r="13" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>76</v>
       </c>
@@ -2966,7 +2966,7 @@
       <c r="T13" s="29"/>
       <c r="U13" s="30"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>69</v>
       </c>
@@ -3007,24 +3007,24 @@
       <c r="T14" s="29"/>
       <c r="U14" s="30"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="80" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="E16" s="64" t="s">
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="E16" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="I16" s="64" t="s">
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="I16" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J16" s="80"/>
+      <c r="K16" s="80"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>48</v>
       </c>
@@ -3053,114 +3053,114 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
+    <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="63" t="s">
+      <c r="E18" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="63" t="s">
+      <c r="F18" s="84" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="62" t="s">
+      <c r="G18" s="88" t="s">
         <v>87</v>
       </c>
       <c r="H18" s="54"/>
-      <c r="I18" s="65" t="s">
+      <c r="I18" s="83" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="63" t="s">
+      <c r="J18" s="84" t="s">
         <v>101</v>
       </c>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="88" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="62"/>
+    <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="83"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="88"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="54"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="62"/>
-    </row>
-    <row r="20" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="62" t="s">
+      <c r="I19" s="83"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="88"/>
+    </row>
+    <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="83"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="62"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="62"/>
-    </row>
-    <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="62"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="62"/>
-      <c r="I21" s="65"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="62"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="73" t="s">
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="88"/>
+      <c r="I20" s="83"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="88"/>
+    </row>
+    <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="83"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="88"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="88"/>
+      <c r="I21" s="83"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="88"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74" t="s">
+      <c r="B23" s="70"/>
+      <c r="C23" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74" t="s">
+      <c r="D23" s="70"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="74" t="s">
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="74"/>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74" t="s">
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="70"/>
+      <c r="P23" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="74"/>
-      <c r="R23" s="74" t="s">
+      <c r="Q23" s="70"/>
+      <c r="R23" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="77"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
+      <c r="S23" s="71"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="82"/>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="72"/>
       <c r="H24" s="32" t="s">
         <v>56</v>
       </c>
@@ -3173,12 +3173,12 @@
       <c r="K24" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="76" t="s">
+      <c r="L24" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="76"/>
-      <c r="N24" s="76"/>
-      <c r="O24" s="76"/>
+      <c r="M24" s="72"/>
+      <c r="N24" s="72"/>
+      <c r="O24" s="72"/>
       <c r="P24" s="32" t="s">
         <v>58</v>
       </c>
@@ -3192,93 +3192,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="79"/>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="75"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="75"/>
       <c r="H25" s="13"/>
       <c r="I25" s="11"/>
       <c r="J25" s="12"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="80"/>
-      <c r="M25" s="80"/>
-      <c r="N25" s="80"/>
-      <c r="O25" s="80"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="75"/>
+      <c r="O25" s="75"/>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
       <c r="S25" s="34"/>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="66" t="s">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="67"/>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="87"/>
       <c r="H26" s="37"/>
       <c r="I26" s="35"/>
       <c r="J26" s="36"/>
       <c r="K26" s="38"/>
-      <c r="L26" s="69"/>
-      <c r="M26" s="69"/>
-      <c r="N26" s="69"/>
-      <c r="O26" s="69"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="76"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="76"/>
       <c r="P26" s="28"/>
       <c r="Q26" s="39"/>
       <c r="R26" s="39"/>
       <c r="S26" s="40"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" s="81" t="s">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="83"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
       <c r="H27" s="42"/>
       <c r="I27" s="43"/>
       <c r="J27" s="41"/>
       <c r="K27" s="44"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
-      <c r="N27" s="84"/>
-      <c r="O27" s="84"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
       <c r="P27" s="29"/>
       <c r="Q27" s="45"/>
       <c r="R27" s="45"/>
       <c r="S27" s="46"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" s="85" t="s">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="86"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="87"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="87"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="68"/>
+      <c r="G28" s="68"/>
       <c r="H28" s="48"/>
       <c r="I28" s="49"/>
       <c r="J28" s="47"/>
       <c r="K28" s="48"/>
-      <c r="L28" s="88"/>
-      <c r="M28" s="88"/>
-      <c r="N28" s="88"/>
-      <c r="O28" s="88"/>
+      <c r="L28" s="69"/>
+      <c r="M28" s="69"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="69"/>
       <c r="P28" s="30"/>
       <c r="Q28" s="50"/>
       <c r="R28" s="50"/>
@@ -3286,17 +3286,14 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G21"/>
     <mergeCell ref="L26:O26"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
@@ -3313,14 +3310,17 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I18:I21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="L28:O28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
@@ -3363,106 +3363,106 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:Q3"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.28515625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="79.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.42578125" style="7"/>
+    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="70"/>
-      <c r="O1" s="70"/>
-      <c r="P1" s="70"/>
-      <c r="Q1" s="70"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="71" t="str">
+      <c r="B2" s="78" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-    </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="78"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="72" t="str">
+      <c r="B3" s="79" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -3531,7 +3531,7 @@
         <v>Reponsabilidad 4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A5" s="22" t="s">
         <v>39</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="T5" s="29"/>
       <c r="U5" s="30"/>
     </row>
-    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="22" t="s">
         <v>80</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="T6" s="29"/>
       <c r="U6" s="30"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>81</v>
       </c>
@@ -3664,7 +3664,7 @@
       <c r="T7" s="29"/>
       <c r="U7" s="30"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>82</v>
       </c>
@@ -3693,15 +3693,15 @@
       <c r="T8" s="29"/>
       <c r="U8" s="30"/>
     </row>
-    <row r="9" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+    <row r="9" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>48</v>
       </c>
@@ -3712,78 +3712,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+    <row r="12" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="88" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="62"/>
-    </row>
-    <row r="14" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
+    <row r="13" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="84"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="88"/>
+    </row>
+    <row r="14" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="84"/>
+      <c r="B14" s="84"/>
       <c r="C14" s="53" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="63"/>
+    <row r="15" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="84"/>
+      <c r="B15" s="84"/>
       <c r="C15" s="53" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="73" t="s">
+    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74" t="s">
+      <c r="B17" s="70"/>
+      <c r="C17" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
-      <c r="G17" s="74"/>
-      <c r="H17" s="74" t="s">
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="74"/>
-      <c r="J17" s="74"/>
-      <c r="K17" s="74" t="s">
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="74"/>
-      <c r="M17" s="74"/>
-      <c r="N17" s="74"/>
-      <c r="O17" s="74"/>
-      <c r="P17" s="74" t="s">
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="70"/>
+      <c r="P17" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="74"/>
-      <c r="R17" s="74" t="s">
+      <c r="Q17" s="70"/>
+      <c r="R17" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="77"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
+      <c r="S17" s="71"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="82"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
       <c r="H18" s="32" t="s">
         <v>56</v>
       </c>
@@ -3796,12 +3796,12 @@
       <c r="K18" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="76" t="s">
+      <c r="L18" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="76"/>
-      <c r="N18" s="76"/>
-      <c r="O18" s="76"/>
+      <c r="M18" s="72"/>
+      <c r="N18" s="72"/>
+      <c r="O18" s="72"/>
       <c r="P18" s="32" t="s">
         <v>58</v>
       </c>
@@ -3815,93 +3815,93 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="13"/>
       <c r="I19" s="11"/>
       <c r="J19" s="12"/>
       <c r="K19" s="11"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
+      <c r="L19" s="75"/>
+      <c r="M19" s="75"/>
+      <c r="N19" s="75"/>
+      <c r="O19" s="75"/>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
       <c r="R19" s="13"/>
       <c r="S19" s="34"/>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="66" t="s">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="87"/>
       <c r="H20" s="37"/>
       <c r="I20" s="35"/>
       <c r="J20" s="36"/>
       <c r="K20" s="38"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="69"/>
-      <c r="O20" s="69"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
       <c r="P20" s="28"/>
       <c r="Q20" s="39"/>
       <c r="R20" s="39"/>
       <c r="S20" s="40"/>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" s="81" t="s">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="64"/>
+      <c r="G21" s="64"/>
       <c r="H21" s="42"/>
       <c r="I21" s="43"/>
       <c r="J21" s="41"/>
       <c r="K21" s="44"/>
-      <c r="L21" s="84"/>
-      <c r="M21" s="84"/>
-      <c r="N21" s="84"/>
-      <c r="O21" s="84"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
       <c r="P21" s="29"/>
       <c r="Q21" s="45"/>
       <c r="R21" s="45"/>
       <c r="S21" s="46"/>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" s="85" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="66" t="s">
         <v>64</v>
       </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="87"/>
+      <c r="B22" s="67"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
       <c r="H22" s="48"/>
       <c r="I22" s="49"/>
       <c r="J22" s="47"/>
       <c r="K22" s="48"/>
-      <c r="L22" s="88"/>
-      <c r="M22" s="88"/>
-      <c r="N22" s="88"/>
-      <c r="O22" s="88"/>
+      <c r="L22" s="69"/>
+      <c r="M22" s="69"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="69"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="50"/>
       <c r="R22" s="50"/>
@@ -3909,13 +3909,12 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="L22:O22"/>
     <mergeCell ref="P17:Q17"/>
     <mergeCell ref="R17:S17"/>
     <mergeCell ref="A20:B20"/>
@@ -3929,12 +3928,13 @@
     <mergeCell ref="C17:G18"/>
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="K17:O17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4C6EA31D-5DD1-42F9-A469-ED5E8CAE0643}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49B9D03A-DE01-40F9-B98E-CDD20DFEBEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E095CDD4-A0B1-4098-9040-B8D44E298DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8880" firstSheet="4" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -898,7 +898,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="171">
   <si>
     <t>Tipo Objeto Dominio</t>
   </si>
@@ -1083,18 +1083,6 @@
     <t>¿Qué hago?</t>
   </si>
   <si>
-    <t>Reponsabilidad 1</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 2</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 3</t>
-  </si>
-  <si>
-    <t>Reponsabilidad 4</t>
-  </si>
-  <si>
     <t>Residentes</t>
   </si>
   <si>
@@ -1228,13 +1216,208 @@
   </si>
   <si>
     <t>No es posible tener mas de un tipo inmueble que tenga el mismo número de vivienda más la misma zona inmueble.</t>
+  </si>
+  <si>
+    <t>Registrar</t>
+  </si>
+  <si>
+    <t>Requerido</t>
+  </si>
+  <si>
+    <t>Filtro/No Listar</t>
+  </si>
+  <si>
+    <t>Requerido/No modificable</t>
+  </si>
+  <si>
+    <t>Filtro/Listar</t>
+  </si>
+  <si>
+    <t>Requerido/Modificable</t>
+  </si>
+  <si>
+    <t>No requerido</t>
+  </si>
+  <si>
+    <t>Filtro {ZonaInmueble.identificador}/Listar {ZonaInmueble.nombre}</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear un inmueble.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0001</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del inmueble que sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos no fueron validos a nivel de tipo de dato, longitud, obligatoriedad, formato y rango y de ser posible, se emite una recomendación para solucionar el problema.</t>
+  </si>
+  <si>
+    <t>Detener de forma inmediata le ejecución del proceso actual.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0002</t>
+  </si>
+  <si>
+    <t>Se debe asegurar no exista un inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un inmueble que tiene el identificador ya existente.</t>
+  </si>
+  <si>
+    <t>Continuo el proceso generando nuevos identificadores hasta asegurar que no esten asignados a otro Inmueble.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0003</t>
+  </si>
+  <si>
+    <t>No es posible tener más de un inmueble con el mismo número de inmueble  para un mismo conjunto residencial.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un inmueble ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingresen datos valido para la creacion de un inmueble.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0004</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del inmueble que se desea registrar no haya sido asignado previamente a otro inmueble.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intente registrar un inmueble que esta previamente registrado en otro inmueble.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingrese un inmueble que no este previamente asignado a otro inmueble.</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un inmueble.</t>
+  </si>
+  <si>
+    <t>Listado de todos los inmuebles que cumplen con los filtros de consulta: 1. Devuelve vacio cuandono se cumplan parametros de consulta. 2.Devuelve el listado de los inmuebles que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0006</t>
+  </si>
+  <si>
+    <t>Se debe Asegurar que si se envian parametros de consulta sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Modificar</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de un inmueble.</t>
+  </si>
+  <si>
+    <t>Inmueble-Pol0007</t>
+  </si>
+  <si>
+    <t>Se debe asegura que exista.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun inmueble.</t>
+  </si>
+  <si>
+    <t>Detengo el preceso hasta que se inserten datos validos ya exitententes.</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un inmueble de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Acción dónde un administrador podrá crear un residente.</t>
+  </si>
+  <si>
+    <t>Acción de buscar la información asociada a un residente.</t>
+  </si>
+  <si>
+    <t>Acción de modificar los atributos de un residente.</t>
+  </si>
+  <si>
+    <t>Acción de eliminar un residente de un conjunto residencial.</t>
+  </si>
+  <si>
+    <t>Lista&lt;inmueble&gt;</t>
+  </si>
+  <si>
+    <t>Lista&lt;Residente&gt;</t>
+  </si>
+  <si>
+    <t>Listado de todos los inmuebles que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de los residentes que cumplan con el filtro de consulta.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0001</t>
+  </si>
+  <si>
+    <t>Resid-Pol0002</t>
+  </si>
+  <si>
+    <t>Resid-Pol0003</t>
+  </si>
+  <si>
+    <t>Resid-Pol0004</t>
+  </si>
+  <si>
+    <t>Resid-Pol0005</t>
+  </si>
+  <si>
+    <t>Asegurar que los datos requeridos para registrar la información del nuevo residente sean válidos a nivel de tipo de dato,formato, rango, longitud y obligatoriedad.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro Residente registrado con el mismo tipo y numero de documento de identidad.</t>
+  </si>
+  <si>
+    <t>Asegurar que el identificador del residente que se desea registrar  no ha haya sido asignado previamente a otro residente.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro residente registrado con el mismo correo electronico.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente que tiene el mismo tipo y número de documento de un residente ya existente.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente con el mismo número de contacto que otro residente ya existente.</t>
+  </si>
+  <si>
+    <t>Se debe asegurar que no exista otro Residente registrado con el mismo número de contacto.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente que esta previamente registrado con el mismo identificador.</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que se intenta registrar un residente con el mismo correo electronico que otro residente ya existente.</t>
+  </si>
+  <si>
+    <t>Detengo el proceso hasta que se ingresen datos valido para la creación del residente.</t>
+  </si>
+  <si>
+    <t>Resid-Pol0006</t>
+  </si>
+  <si>
+    <t>Resid-Pol0007</t>
+  </si>
+  <si>
+    <t>En caso de que la politica no se cumpla, se deberá generar un mensaje de error indicando que los datos que se ingresaron no pertenecen a ningun residente.</t>
+  </si>
+  <si>
+    <t>Filtro {Inmueble.identificador}/Listar {Inmueble.nombre}</t>
+  </si>
+  <si>
+    <t>No filtrar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1269,15 +1452,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1369,7 +1543,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1545,12 +1719,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1595,18 +2024,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1622,9 +2039,6 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1643,9 +2057,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1653,61 +2064,37 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1727,49 +2114,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -1784,29 +2132,272 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2205,10 +2796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2312,7 +2903,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2325,14 +2916,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2353,28 +2944,28 @@
         <v>19</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60" t="str">
+      <c r="D3" s="46" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C4" s="13" t="str">
         <f>Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2390,10 +2981,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD2E3E-2179-4007-8743-BED3F3BF1317}">
-  <dimension ref="A1:U28"/>
+  <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2415,7 +3006,7 @@
     <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="116.6640625" style="7" customWidth="1"/>
     <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
@@ -2424,73 +3015,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="51" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="52" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -2544,757 +3135,1038 @@
       <c r="Q4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="18" t="str">
-        <f>A25</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="19" t="str">
-        <f>A26</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="20" t="str">
-        <f>A27</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="21" t="str">
-        <f>A28</f>
-        <v>Reponsabilidad 4</v>
+      <c r="R4" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="56" t="str">
+        <f>A30</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="57" t="str">
+        <f>A31</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="58" t="str">
+        <f>A32</f>
+        <v>Eliminar</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>32</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>32</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="24" t="s">
+      <c r="Q5" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>50</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="19">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="19">
+        <v>1</v>
+      </c>
+      <c r="D8" s="19">
+        <v>50</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L8" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S8" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
-    </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="23" t="s">
+      <c r="R9" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S9" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T9" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U9" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="M10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P10" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="R10" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S10" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T10" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R11" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S11" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T11" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U11" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="19">
+        <v>6</v>
+      </c>
+      <c r="D12" s="19">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="R12" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S12" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="T12" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U12" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="19">
         <v>8</v>
       </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="23">
+      <c r="D13" s="19">
+        <v>30</v>
+      </c>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L13" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="R13" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="19"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="M14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S14" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="T14" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U14" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="E16" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="I16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J17" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L6" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N6" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P6" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q6" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>50</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="23">
-        <v>1</v>
-      </c>
-      <c r="D8" s="23">
-        <v>50</v>
-      </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L8" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O8" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q8" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O9" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q9" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="R9" s="27"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="30"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="23"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24" t="s">
+      <c r="B18" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="R10" s="27"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="30"/>
-    </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="R11" s="27"/>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29"/>
-      <c r="U11" s="30"/>
-    </row>
-    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="23">
-        <v>6</v>
-      </c>
-      <c r="D12" s="23">
-        <v>50</v>
-      </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="R12" s="27"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="30"/>
-    </row>
-    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="23">
-        <v>8</v>
-      </c>
-      <c r="D13" s="23">
-        <v>30</v>
-      </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O13" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="P13" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="24" t="s">
+      <c r="E18" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="R13" s="27"/>
-      <c r="S13" s="28"/>
-      <c r="T13" s="29"/>
-      <c r="U13" s="30"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="24" t="s">
-        <v>77</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="M14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P14" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q14" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="R14" s="27"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="29"/>
-      <c r="U14" s="30"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="80" t="s">
+      <c r="G18" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="39"/>
+      <c r="I18" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="J18" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="80"/>
-      <c r="E16" s="80" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80"/>
-      <c r="I16" s="80" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="80"/>
-      <c r="K16" s="80"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="K17" s="31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="83" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="84" t="s">
+      <c r="K18" s="48" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="88" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="84" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="84" t="s">
-        <v>100</v>
-      </c>
-      <c r="G18" s="88" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="54"/>
-      <c r="I18" s="83" t="s">
-        <v>104</v>
-      </c>
-      <c r="J18" s="84" t="s">
-        <v>101</v>
-      </c>
-      <c r="K18" s="88" t="s">
-        <v>102</v>
-      </c>
     </row>
     <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="83"/>
-      <c r="B19" s="84"/>
-      <c r="C19" s="88"/>
-      <c r="E19" s="84"/>
-      <c r="F19" s="84"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="83"/>
-      <c r="J19" s="84"/>
-      <c r="K19" s="88"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="48"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="48"/>
     </row>
     <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="83"/>
-      <c r="B20" s="84"/>
-      <c r="C20" s="88" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="88"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="84"/>
-      <c r="K20" s="88"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="49"/>
+      <c r="C20" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="48"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="48"/>
     </row>
     <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="83"/>
-      <c r="B21" s="84"/>
-      <c r="C21" s="88"/>
-      <c r="E21" s="84"/>
-      <c r="F21" s="84"/>
-      <c r="G21" s="88"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="84"/>
-      <c r="K21" s="88"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="48"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="48"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+      <c r="A23" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70" t="s">
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="61"/>
+      <c r="H23" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70" t="s">
+      <c r="I23" s="65"/>
+      <c r="J23" s="66"/>
+      <c r="K23" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="70"/>
-      <c r="P23" s="70" t="s">
+      <c r="L23" s="65"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="65"/>
+      <c r="O23" s="66"/>
+      <c r="P23" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="70"/>
-      <c r="R23" s="70" t="s">
+      <c r="Q23" s="66"/>
+      <c r="R23" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="71"/>
+      <c r="S23" s="67"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="82"/>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="32" t="s">
+      <c r="A24" s="68"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="72" t="s">
+      <c r="L24" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="72"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="32" t="s">
+      <c r="M24" s="74"/>
+      <c r="N24" s="74"/>
+      <c r="O24" s="75"/>
+      <c r="P24" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="Q24" s="32" t="s">
+      <c r="Q24" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="R24" s="32" t="s">
+      <c r="R24" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S24" s="33" t="s">
+      <c r="S24" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="34"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="76"/>
-      <c r="N26" s="76"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="39"/>
-      <c r="R26" s="39"/>
-      <c r="S26" s="40"/>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="64"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="43"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="46"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="67"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="69"/>
-      <c r="M28" s="69"/>
-      <c r="N28" s="69"/>
-      <c r="O28" s="69"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
-      <c r="S28" s="51"/>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="80"/>
+      <c r="H25" s="81" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosResidente</v>
+      </c>
+      <c r="I25" s="129" t="str">
+        <f>B2</f>
+        <v>Residente</v>
+      </c>
+      <c r="J25" s="83" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",B2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Residente</v>
+      </c>
+      <c r="K25" s="84"/>
+      <c r="L25" s="85"/>
+      <c r="M25" s="86"/>
+      <c r="N25" s="86"/>
+      <c r="O25" s="87"/>
+      <c r="P25" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q25" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S25" s="88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="89"/>
+      <c r="B26" s="90"/>
+      <c r="C26" s="91"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="93"/>
+      <c r="H26" s="94"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="96"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="98"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="S26" s="88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="89"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="93"/>
+      <c r="H27" s="94"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="96"/>
+      <c r="K27" s="97"/>
+      <c r="L27" s="98"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="99"/>
+      <c r="O27" s="100"/>
+      <c r="P27" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q27" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="S27" s="88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="89"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="94"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="96"/>
+      <c r="K28" s="97"/>
+      <c r="L28" s="98"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
+      <c r="O28" s="100"/>
+      <c r="P28" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="R28" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="S28" s="88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="132"/>
+      <c r="B29" s="133"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="136"/>
+      <c r="H29" s="137"/>
+      <c r="I29" s="138"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="97"/>
+      <c r="L29" s="140"/>
+      <c r="M29" s="141"/>
+      <c r="N29" s="141"/>
+      <c r="O29" s="142"/>
+      <c r="P29" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q29" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="S29" s="88" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="102"/>
+      <c r="C30" s="103" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="30" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosResidente</v>
+      </c>
+      <c r="I30" s="131" t="str">
+        <f>B2</f>
+        <v>Residente</v>
+      </c>
+      <c r="J30" s="30" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de un  ",B2," de un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de un  Residente de un conjunto residencial.</v>
+      </c>
+      <c r="K30" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="L30" s="106" t="s">
+        <v>150</v>
+      </c>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q30" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="R30" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="S30" s="109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B31" s="111"/>
+      <c r="C31" s="112" t="s">
+        <v>146</v>
+      </c>
+      <c r="D31" s="113"/>
+      <c r="E31" s="113"/>
+      <c r="F31" s="113"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="32" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosResidente</v>
+      </c>
+      <c r="I31" s="33" t="str">
+        <f>B2</f>
+        <v>Residente</v>
+      </c>
+      <c r="J31" s="32" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar del ",B2)</f>
+        <v>Corresponde a los datos que se van a modificar del Residente</v>
+      </c>
+      <c r="K31" s="34"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="117"/>
+      <c r="P31" s="118" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q31" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="R31" s="119" t="s">
+        <v>168</v>
+      </c>
+      <c r="S31" s="120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B32" s="122"/>
+      <c r="C32" s="123" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="124"/>
+      <c r="E32" s="124"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I32" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="35" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador del ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador del Residente  que se quiere dar de baja.</v>
+      </c>
+      <c r="K32" s="36"/>
+      <c r="L32" s="126"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="127"/>
+      <c r="O32" s="128"/>
+      <c r="P32" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q32" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>168</v>
+      </c>
+      <c r="S32" s="37" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="L26:O26"/>
+  <mergeCells count="38">
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="C25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="L25:O28"/>
+    <mergeCell ref="R23:S23"/>
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B3:Q3"/>
@@ -3310,36 +4182,33 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I18:I21"/>
-    <mergeCell ref="R23:S23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
-    <hyperlink ref="I28" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{76F12625-B198-4C45-B316-89AD33070AE0}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{4616484A-1A8A-4DB6-940E-8291C6AB0942}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{E3F528BF-39F4-4A77-A086-121A7620B9F7}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{84031BE7-BD4B-4472-A1D3-49634C93D82C}"/>
-    <hyperlink ref="A26:B26" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{57BB2E48-0EF6-4E31-8A3C-C7CC98745FF9}"/>
-    <hyperlink ref="A25:B25" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{A7849B7E-A984-439D-AC57-2AF622631983}"/>
-    <hyperlink ref="A28:B28" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{BA0AA56C-D662-4271-912B-1B000C27B93A}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{B80B22E6-6928-44D7-BF33-2D2339A3EAD3}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{2CEFD9A1-7256-4CC0-A14B-05D2869A5C81}"/>
-    <hyperlink ref="A27:B27" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{35AD5D22-1DAF-4594-AD05-7CB9953F9873}"/>
     <hyperlink ref="C20" location="Residente!A9" display="numeroDocumento" xr:uid="{44C56CF5-7141-4A21-B9BC-308CD3AA36CE}"/>
     <hyperlink ref="I12" r:id="rId1" xr:uid="{DB94A35C-D1D9-4791-A75D-DEEACCA61A6F}"/>
-    <hyperlink ref="A5" location="Residente!A12" display="identificador" xr:uid="{A920818D-F9BB-43C7-8C7F-E02D95D9364D}"/>
     <hyperlink ref="C18" location="Residente!A8" display="tipoDocumento" xr:uid="{54E136A1-DFED-46E9-8B2D-B46752A571BA}"/>
     <hyperlink ref="G18:G21" location="Residente!A11" display="numeroContacto" xr:uid="{822FB009-8280-411A-ABA3-9ECC828AF1D7}"/>
     <hyperlink ref="K18:K21" location="Residente!A12" display="correoElectronico" xr:uid="{6CEB801B-74BD-4ACB-ADC9-1B88A785F9B9}"/>
+    <hyperlink ref="I32" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{3F332D65-B743-4C33-8DFA-4072F68B2DBB}"/>
+    <hyperlink ref="A30:B30" location="Residente!S4" display="Buscar" xr:uid="{ACDDD86B-BF7F-4A39-9668-C238CE60E1B4}"/>
+    <hyperlink ref="A32:B32" location="Residente!U4" display="Eliminar" xr:uid="{7CDD3DA3-7476-4A95-8876-943199D63EA3}"/>
+    <hyperlink ref="A31:B31" location="Residente!T4" display="Modificar" xr:uid="{10406515-93D8-4184-B203-8D732922E6B6}"/>
+    <hyperlink ref="I25:I28" location="Residente!B2" display="Residente!B2" xr:uid="{301FED57-2D15-44DF-AD91-BD00442B7061}"/>
+    <hyperlink ref="I30" location="Residente!B2" display="Residente!B2" xr:uid="{5A3119CE-AD4B-4D57-88D8-9772937B9648}"/>
+    <hyperlink ref="I31" location="Residente!B2" display="Residente!B2" xr:uid="{7ABB1CDF-640A-4D6A-A4C0-E14A73161812}"/>
+    <hyperlink ref="A25:B28" location="Residente!R4" display="Registrar" xr:uid="{96202AE8-D265-4411-B317-D49A89DD6979}"/>
+    <hyperlink ref="T4" location="Residente!A30" display="Residente!A30" xr:uid="{5D56BF46-0783-42E4-BCBA-42373B2D338D}"/>
+    <hyperlink ref="U4" location="Residente!A31" display="Residente!A31" xr:uid="{1BF78138-4A40-4FEB-9F14-D5CFABAA28FF}"/>
+    <hyperlink ref="R4" location="Residente!A25" display="Registrar" xr:uid="{BC21DCA5-C5C3-43EB-BDAE-3B943C74E69A}"/>
+    <hyperlink ref="S4" location="Residente!A29" display="Residente!A29" xr:uid="{50909EC4-1171-4363-B829-6AA98DC22077}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -3360,10 +4229,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE91583B-F698-4020-97FF-1414BFE2C5EB}">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3394,73 +4263,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="78" t="str">
+      <c r="B2" s="51" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="79" t="str">
+      <c r="B3" s="52" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="79"/>
-      <c r="M3" s="79"/>
-      <c r="N3" s="79"/>
-      <c r="O3" s="79"/>
-      <c r="P3" s="79"/>
-      <c r="Q3" s="79"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
+      <c r="J3" s="52"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="52"/>
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -3514,420 +4383,606 @@
       <c r="Q4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="18" t="str">
-        <f>A19</f>
-        <v>Reponsabilidad 1</v>
-      </c>
-      <c r="S4" s="19" t="str">
-        <f>A20</f>
-        <v>Reponsabilidad 2</v>
-      </c>
-      <c r="T4" s="20" t="str">
-        <f>A21</f>
-        <v>Reponsabilidad 3</v>
-      </c>
-      <c r="U4" s="21" t="str">
-        <f>A22</f>
-        <v>Reponsabilidad 4</v>
+      <c r="R4" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="56" t="str">
+        <f>A23</f>
+        <v>Buscar</v>
+      </c>
+      <c r="T4" s="57" t="str">
+        <f>A24</f>
+        <v>Modificar</v>
+      </c>
+      <c r="U4" s="58" t="str">
+        <f>A25</f>
+        <v>Eliminar</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="19">
         <v>32</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="19">
         <v>32</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="26" t="s">
+      <c r="J5" s="19"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="23" t="s">
+      <c r="M5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="23" t="s">
+      <c r="N5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O5" s="23" t="s">
+      <c r="O5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="23" t="s">
+      <c r="P5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="Q5" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="R5" s="27"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="30"/>
+      <c r="Q5" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="R5" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T5" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="19">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>20</v>
+      </c>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="R6" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S6" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U6" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="23">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
-      <c r="D6" s="23">
-        <v>20</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="J6" s="23"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26" t="s">
+      <c r="D7" s="19">
+        <v>50</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="23" t="s">
+      <c r="M7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N6" s="23" t="s">
+      <c r="N7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="O6" s="23" t="s">
+      <c r="O7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="23" t="s">
+      <c r="P7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="R6" s="27"/>
-      <c r="S6" s="28"/>
-      <c r="T6" s="29"/>
-      <c r="U6" s="30"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="Q7" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="R7" s="59" t="s">
+        <v>107</v>
+      </c>
+      <c r="S7" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="T7" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U7" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
-        <v>50</v>
-      </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q7" s="24" t="s">
+      <c r="R8" s="59" t="s">
         <v>107</v>
       </c>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29"/>
-      <c r="U7" s="30"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="27"/>
-      <c r="S8" s="28"/>
-      <c r="T8" s="29"/>
-      <c r="U8" s="30"/>
+      <c r="S8" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="T8" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="U8" s="25" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="9" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="26" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="84" t="s">
-        <v>109</v>
-      </c>
-      <c r="C12" s="88" t="s">
-        <v>80</v>
+      <c r="A12" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>105</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="84"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="88"/>
+      <c r="A13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="48"/>
     </row>
     <row r="14" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="84"/>
-      <c r="B14" s="84"/>
-      <c r="C14" s="53" t="s">
-        <v>81</v>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="38" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="84"/>
-      <c r="B15" s="84"/>
-      <c r="C15" s="53" t="s">
-        <v>82</v>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="38" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="81" t="s">
+      <c r="A17" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70" t="s">
+      <c r="B17" s="61"/>
+      <c r="C17" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="64" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70" t="s">
+      <c r="I17" s="65"/>
+      <c r="J17" s="66"/>
+      <c r="K17" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="70"/>
-      <c r="P17" s="70" t="s">
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="65"/>
+      <c r="O17" s="66"/>
+      <c r="P17" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="70"/>
-      <c r="R17" s="70" t="s">
+      <c r="Q17" s="66"/>
+      <c r="R17" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="71"/>
+      <c r="S17" s="67"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="82"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="32" t="s">
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="72" t="s">
         <v>56</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="72" t="s">
+      <c r="L18" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="32" t="s">
+      <c r="M18" s="74"/>
+      <c r="N18" s="74"/>
+      <c r="O18" s="75"/>
+      <c r="P18" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="Q18" s="32" t="s">
+      <c r="Q18" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="R18" s="32" t="s">
+      <c r="R18" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="S18" s="33" t="s">
+      <c r="S18" s="28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="75"/>
-      <c r="M19" s="75"/>
-      <c r="N19" s="75"/>
-      <c r="O19" s="75"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="13"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="34"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="85" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" s="86"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="87"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="28"/>
-      <c r="Q20" s="39"/>
-      <c r="R20" s="39"/>
-      <c r="S20" s="40"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="65"/>
-      <c r="O21" s="65"/>
-      <c r="P21" s="29"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="45"/>
-      <c r="S21" s="46"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="69"/>
-      <c r="M22" s="69"/>
-      <c r="N22" s="69"/>
-      <c r="O22" s="69"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="50"/>
-      <c r="S22" s="51"/>
+    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosInmueble</v>
+      </c>
+      <c r="I19" s="82" t="str">
+        <f>B2</f>
+        <v>Inmueble</v>
+      </c>
+      <c r="J19" s="83" t="str">
+        <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
+        <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Inmueble</v>
+      </c>
+      <c r="K19" s="84"/>
+      <c r="L19" s="85"/>
+      <c r="M19" s="86"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q19" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="89"/>
+      <c r="B20" s="90"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="97"/>
+      <c r="L20" s="98"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="99"/>
+      <c r="O20" s="100"/>
+      <c r="P20" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="S20" s="88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="91"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="94"/>
+      <c r="I21" s="95"/>
+      <c r="J21" s="96"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
+      <c r="O21" s="100"/>
+      <c r="P21" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q21" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="S21" s="88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="91"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="94"/>
+      <c r="I22" s="95"/>
+      <c r="J22" s="96"/>
+      <c r="K22" s="97"/>
+      <c r="L22" s="98"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
+      <c r="O22" s="100"/>
+      <c r="P22" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q22" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="S22" s="88" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="101" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="102"/>
+      <c r="C23" s="103" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" s="104"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="30" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosInmueble</v>
+      </c>
+      <c r="I23" s="29" t="str">
+        <f>B2</f>
+        <v>Inmueble</v>
+      </c>
+      <c r="J23" s="30" t="str">
+        <f>_xlfn.CONCAT("Corresponde a un objeto que contiene los filtros de consulta de ",B2," de un conjunto residencial.")</f>
+        <v>Corresponde a un objeto que contiene los filtros de consulta de Inmueble de un conjunto residencial.</v>
+      </c>
+      <c r="K23" s="41" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="106" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
+      <c r="P23" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q23" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="R23" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="S23" s="109" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="32" t="str">
+        <f>_xlfn.CONCAT("datos",B2)</f>
+        <v>datosInmueble</v>
+      </c>
+      <c r="I24" s="33" t="str">
+        <f>B2</f>
+        <v>Inmueble</v>
+      </c>
+      <c r="J24" s="32" t="str">
+        <f>_xlfn.CONCAT("Corresponde a los datos que se van a modificar de la ",B2)</f>
+        <v>Corresponde a los datos que se van a modificar de la Inmueble</v>
+      </c>
+      <c r="K24" s="34"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="117"/>
+      <c r="P24" s="118" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="119" t="s">
+        <v>139</v>
+      </c>
+      <c r="R24" s="119" t="s">
+        <v>140</v>
+      </c>
+      <c r="S24" s="120" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="121" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="122"/>
+      <c r="C25" s="123" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="124"/>
+      <c r="E25" s="124"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="35" t="str">
+        <f>_xlfn.CONCAT("Corresponde al identificador de la ",$B$2,"  que se quiere dar de baja.")</f>
+        <v>Corresponde al identificador de la Inmueble  que se quiere dar de baja.</v>
+      </c>
+      <c r="K25" s="36"/>
+      <c r="L25" s="126"/>
+      <c r="M25" s="127"/>
+      <c r="N25" s="127"/>
+      <c r="O25" s="128"/>
+      <c r="P25" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q25" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="S25" s="37" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:O17"/>
+  <mergeCells count="29">
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:G24"/>
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="B2:Q2"/>
     <mergeCell ref="B3:Q3"/>
@@ -3935,22 +4990,38 @@
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="B12:B15"/>
     <mergeCell ref="C12:C13"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="C19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="L19:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4C6EA31D-5DD1-42F9-A469-ED5E8CAE0643}"/>
-    <hyperlink ref="I22" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{832C2C7D-CE9E-4F30-B722-0D6FA25E146B}"/>
-    <hyperlink ref="S4" location="'Objeto Dominio 2'!A17" display="'Objeto Dominio 2'!A17" xr:uid="{2315669A-A2F3-4C62-A0E7-2908181E851D}"/>
-    <hyperlink ref="T4" location="'Objeto Dominio 2'!A18" display="'Objeto Dominio 2'!A18" xr:uid="{9043A94A-88C0-4ADE-B1A2-79E882569B3D}"/>
-    <hyperlink ref="U4" location="'Objeto Dominio 2'!A19" display="'Objeto Dominio 2'!A19" xr:uid="{F61874F6-1C42-4622-8E59-B59B3CDC0F2D}"/>
-    <hyperlink ref="A20:B20" location="'Objeto Dominio 2'!R4" display="Reponsabilidad 2" xr:uid="{D8B4A7B2-48EA-4220-AEB3-1BD24ADA3F59}"/>
-    <hyperlink ref="A19:B19" location="'Objeto Dominio 2'!Q4" display="Reponsabilidad 1" xr:uid="{EC286AA4-E9A9-4BF3-B3B0-EAD186CE18F8}"/>
-    <hyperlink ref="A22:B22" location="'Objeto Dominio 2'!T4" display="Reponsabilidad 4" xr:uid="{4DE32F42-888F-41E5-9B65-373BF1787437}"/>
-    <hyperlink ref="R4" location="'Objeto Dominio 2'!A16" display="'Objeto Dominio 2'!A16" xr:uid="{E159E70F-4E2A-4B81-88B7-180EF236F4AF}"/>
     <hyperlink ref="A1:Q1" location="'Listado Objetos de Dominio'!A1" display="&lt;-Volver al inicio" xr:uid="{68117D6F-3D68-4E53-BDF0-9E2FE69EC82B}"/>
-    <hyperlink ref="A21:B21" location="'Objeto Dominio 2'!S4" display="Reponsabilidad 3" xr:uid="{88B8D7F6-7CE9-490A-9A89-991C0E7873EF}"/>
     <hyperlink ref="C15" location="Inmueble!A8" display="ZonaInmueble" xr:uid="{DB88250A-52A4-46B9-B641-D80D50936AFD}"/>
     <hyperlink ref="C14" location="Inmueble!A7" display="numeroVivienda" xr:uid="{7C3EDB2F-89BF-494E-90D1-85A6C4411548}"/>
     <hyperlink ref="C12" location="Inmueble!A6" display="tipoInmueble" xr:uid="{67F5311F-E219-4D10-B08A-00D1F447C35E}"/>
+    <hyperlink ref="T4" location="Inmueble!A24" display="Inmueble!A24" xr:uid="{6B85A766-FE98-4E0D-BA4E-307AEF32087B}"/>
+    <hyperlink ref="U4" location="Inmueble!A25" display="Inmueble!A25" xr:uid="{0B31C64C-F40D-42E8-B7BB-6F3B28DBA4A9}"/>
+    <hyperlink ref="R4" location="Inmueble!A19" display="Registrar" xr:uid="{9CF36FA9-4736-4461-8BC4-6D63275BBB43}"/>
+    <hyperlink ref="S4" location="Inmueble!A23" display="Inmueble!A23" xr:uid="{94FC0D47-78FA-4F07-B047-30A115B0B09E}"/>
+    <hyperlink ref="I25" location="'Tipo Relación Institución'!A6" display="'Tipo Relación Institución'!A6" xr:uid="{925BA423-E6A3-4809-A55F-9065ACAC2FA4}"/>
+    <hyperlink ref="A23:B23" location="Residente!S4" display="Buscar" xr:uid="{72BC4EC8-4009-4DCA-90CA-DEE2898E8D75}"/>
+    <hyperlink ref="A25:B25" location="Inmueble!U4" display="Eliminar" xr:uid="{4A22F145-C969-4341-A06C-4D62FAFE1576}"/>
+    <hyperlink ref="A24:B24" location="Inmueble!T4" display="Modificar" xr:uid="{F4439766-D1F3-420B-880B-FDCC00EC4131}"/>
+    <hyperlink ref="I19:I22" location="Inmueble!B2" display="Inmueble!B2" xr:uid="{1A8EFC3A-7FF4-4C4F-AA40-7EC617613E26}"/>
+    <hyperlink ref="I23" location="Inmueble!B2" display="Inmueble!B2" xr:uid="{9D627493-51C8-4318-9769-3833CF76727A}"/>
+    <hyperlink ref="I24" location="Inmueble!B2" display="Inmueble!B2" xr:uid="{FF551B30-67B6-4F91-BA1F-55BDE6DB061F}"/>
+    <hyperlink ref="A19:B22" location="Inmueble!R4" display="Registrar" xr:uid="{9E1F0932-C85E-43D7-9C30-7B740107C30B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E095CDD4-A0B1-4098-9040-B8D44E298DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3472D0B9-10EE-4E64-A791-3FC9C14E2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="3" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -1350,9 +1350,6 @@
     <t>Lista&lt;Residente&gt;</t>
   </si>
   <si>
-    <t>Listado de todos los inmuebles que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de los residentes que cumplan con el filtro de consulta.</t>
-  </si>
-  <si>
     <t>Resid-Pol0001</t>
   </si>
   <si>
@@ -1411,6 +1408,9 @@
   </si>
   <si>
     <t>No filtrar</t>
+  </si>
+  <si>
+    <t>Listado de todos los residentes que cumplen con los filtros de consulta: 1. Devuelve vacio cuando no se cumplan parametros de consulta. 2.Devuelve el listado de los residentes que cumplan con el filtro de consulta.</t>
   </si>
 </sst>
 </file>
@@ -2096,6 +2096,81 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2114,290 +2189,215 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2796,10 +2796,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="68"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2919,11 +2919,11 @@
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="45"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
@@ -2949,7 +2949,7 @@
       <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="46" t="str">
+      <c r="D3" s="71" t="str">
         <f>$B$1</f>
         <v>Residentes</v>
       </c>
@@ -2965,7 +2965,7 @@
         <f>Valores!$A$4</f>
         <v>Referenciado</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD2E3E-2179-4007-8743-BED3F3BF1317}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3015,73 +3015,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="125" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="126" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -3135,18 +3135,18 @@
       <c r="Q4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="56" t="str">
+      <c r="S4" s="43" t="str">
         <f>A30</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="57" t="str">
+      <c r="T4" s="44" t="str">
         <f>A31</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="58" t="str">
+      <c r="U4" s="45" t="str">
         <f>A32</f>
         <v>Eliminar</v>
       </c>
@@ -3191,7 +3191,7 @@
       <c r="Q5" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S5" s="23" t="s">
@@ -3246,7 +3246,7 @@
       <c r="Q6" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S6" s="23" t="s">
@@ -3301,7 +3301,7 @@
       <c r="Q7" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="R7" s="59" t="s">
+      <c r="R7" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S7" s="23" t="s">
@@ -3356,7 +3356,7 @@
       <c r="Q8" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="59" t="s">
+      <c r="R8" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S8" s="23" t="s">
@@ -3405,7 +3405,7 @@
       <c r="Q9" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="R9" s="59" t="s">
+      <c r="R9" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S9" s="23" t="s">
@@ -3454,7 +3454,7 @@
       <c r="Q10" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="R10" s="59" t="s">
+      <c r="R10" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S10" s="23" t="s">
@@ -3505,7 +3505,7 @@
       <c r="Q11" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="R11" s="59" t="s">
+      <c r="R11" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S11" s="23" t="s">
@@ -3560,11 +3560,11 @@
       <c r="Q12" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="R12" s="59" t="s">
+      <c r="R12" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S12" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T12" s="24" t="s">
         <v>111</v>
@@ -3615,11 +3615,11 @@
       <c r="Q13" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R13" s="59" t="s">
+      <c r="R13" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S13" s="23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="T13" s="24" t="s">
         <v>111</v>
@@ -3664,11 +3664,11 @@
       <c r="Q14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R14" s="59" t="s">
+      <c r="R14" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S14" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="T14" s="24" t="s">
         <v>111</v>
@@ -3678,21 +3678,21 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="127" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="E16" s="53" t="s">
+      <c r="B16" s="127"/>
+      <c r="C16" s="127"/>
+      <c r="E16" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="I16" s="53" t="s">
+      <c r="F16" s="127"/>
+      <c r="G16" s="127"/>
+      <c r="I16" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="53"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="127"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="26" t="s">
@@ -3724,114 +3724,114 @@
       </c>
     </row>
     <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="138" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="139" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="140" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="49" t="s">
+      <c r="E18" s="139" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="49" t="s">
+      <c r="F18" s="139" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="48" t="s">
+      <c r="G18" s="140" t="s">
         <v>83</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="54" t="s">
+      <c r="I18" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="139" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="48" t="s">
+      <c r="K18" s="140" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="48"/>
+      <c r="A19" s="138"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="E19" s="139"/>
+      <c r="F19" s="139"/>
+      <c r="G19" s="140"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="48"/>
+      <c r="I19" s="138"/>
+      <c r="J19" s="139"/>
+      <c r="K19" s="140"/>
     </row>
     <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="48" t="s">
+      <c r="A20" s="138"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="48"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="48"/>
+      <c r="E20" s="139"/>
+      <c r="F20" s="139"/>
+      <c r="G20" s="140"/>
+      <c r="I20" s="138"/>
+      <c r="J20" s="139"/>
+      <c r="K20" s="140"/>
     </row>
     <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="48"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="48"/>
+      <c r="A21" s="138"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="E21" s="139"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="140"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="139"/>
+      <c r="K21" s="140"/>
     </row>
     <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="129"/>
+      <c r="C23" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="61"/>
-      <c r="H23" s="64" t="s">
+      <c r="D23" s="133"/>
+      <c r="E23" s="133"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="65"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="64" t="s">
+      <c r="I23" s="136"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="65"/>
-      <c r="M23" s="65"/>
-      <c r="N23" s="65"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="64" t="s">
+      <c r="L23" s="136"/>
+      <c r="M23" s="136"/>
+      <c r="N23" s="136"/>
+      <c r="O23" s="137"/>
+      <c r="P23" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="64" t="s">
+      <c r="Q23" s="137"/>
+      <c r="R23" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="67"/>
+      <c r="S23" s="120"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="68"/>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="71"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="72" t="s">
+      <c r="A24" s="130"/>
+      <c r="B24" s="131"/>
+      <c r="C24" s="134"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="135"/>
+      <c r="F24" s="135"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="47" t="s">
         <v>56</v>
       </c>
       <c r="I24" s="27" t="s">
@@ -3843,12 +3843,12 @@
       <c r="K24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="73" t="s">
+      <c r="L24" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="74"/>
-      <c r="N24" s="74"/>
-      <c r="O24" s="75"/>
+      <c r="M24" s="122"/>
+      <c r="N24" s="122"/>
+      <c r="O24" s="123"/>
       <c r="P24" s="27" t="s">
         <v>58</v>
       </c>
@@ -3863,180 +3863,180 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="76" t="s">
+      <c r="A25" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78" t="s">
+      <c r="B25" s="98"/>
+      <c r="C25" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="81" t="str">
+      <c r="D25" s="102"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="107" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
       </c>
-      <c r="I25" s="129" t="str">
+      <c r="I25" s="109" t="str">
         <f>B2</f>
         <v>Residente</v>
       </c>
-      <c r="J25" s="83" t="str">
+      <c r="J25" s="111" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",B2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Residente</v>
       </c>
-      <c r="K25" s="84"/>
-      <c r="L25" s="85"/>
-      <c r="M25" s="86"/>
-      <c r="N25" s="86"/>
-      <c r="O25" s="87"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="113"/>
+      <c r="M25" s="114"/>
+      <c r="N25" s="114"/>
+      <c r="O25" s="115"/>
       <c r="P25" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q25" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="R25" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="S25" s="88" t="s">
+      <c r="S25" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="89"/>
-      <c r="B26" s="90"/>
-      <c r="C26" s="91"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="92"/>
-      <c r="G26" s="93"/>
-      <c r="H26" s="94"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="97"/>
-      <c r="L26" s="98"/>
-      <c r="M26" s="99"/>
-      <c r="N26" s="99"/>
-      <c r="O26" s="100"/>
+      <c r="A26" s="99"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="105"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="112"/>
+      <c r="K26" s="57"/>
+      <c r="L26" s="116"/>
+      <c r="M26" s="117"/>
+      <c r="N26" s="117"/>
+      <c r="O26" s="118"/>
       <c r="P26" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="R26" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="S26" s="49" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="104"/>
+      <c r="D27" s="105"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="105"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="108"/>
+      <c r="I27" s="110"/>
+      <c r="J27" s="112"/>
+      <c r="K27" s="57"/>
+      <c r="L27" s="116"/>
+      <c r="M27" s="117"/>
+      <c r="N27" s="117"/>
+      <c r="O27" s="118"/>
+      <c r="P27" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="Q26" s="12" t="s">
+      <c r="Q27" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="S27" s="49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="99"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="104"/>
+      <c r="D28" s="105"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="105"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="108"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="112"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="116"/>
+      <c r="M28" s="117"/>
+      <c r="N28" s="117"/>
+      <c r="O28" s="118"/>
+      <c r="P28" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="R26" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="S26" s="88" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="89"/>
-      <c r="B27" s="90"/>
-      <c r="C27" s="91"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="92"/>
-      <c r="F27" s="92"/>
-      <c r="G27" s="93"/>
-      <c r="H27" s="94"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="97"/>
-      <c r="L27" s="98"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
-      <c r="O27" s="100"/>
-      <c r="P27" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+      <c r="R28" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="R27" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="S27" s="88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="89"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="92"/>
-      <c r="F28" s="92"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="94"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="97"/>
-      <c r="L28" s="98"/>
-      <c r="M28" s="99"/>
-      <c r="N28" s="99"/>
-      <c r="O28" s="100"/>
-      <c r="P28" s="13" t="s">
+      <c r="S28" s="49" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="65"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="60"/>
+      <c r="P29" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q29" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="R28" s="12" t="s">
+      <c r="R29" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="S28" s="88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="132"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="134"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="136"/>
-      <c r="H29" s="137"/>
-      <c r="I29" s="138"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="97"/>
-      <c r="L29" s="140"/>
-      <c r="M29" s="141"/>
-      <c r="N29" s="141"/>
-      <c r="O29" s="142"/>
-      <c r="P29" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="R29" s="12" t="s">
+      <c r="S29" s="49" t="s">
         <v>164</v>
       </c>
-      <c r="S29" s="88" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="30" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="101" t="s">
+      <c r="A30" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="102"/>
-      <c r="C30" s="103" t="s">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="105"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="85"/>
       <c r="H30" s="30" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
       </c>
-      <c r="I30" s="131" t="str">
+      <c r="I30" s="66" t="str">
         <f>B2</f>
         <v>Residente</v>
       </c>
@@ -4047,14 +4047,14 @@
       <c r="K30" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="106" t="s">
-        <v>150</v>
-      </c>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
+      <c r="L30" s="86" t="s">
+        <v>170</v>
+      </c>
+      <c r="M30" s="87"/>
+      <c r="N30" s="87"/>
+      <c r="O30" s="88"/>
       <c r="P30" s="23" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q30" s="31" t="s">
         <v>135</v>
@@ -4062,22 +4062,22 @@
       <c r="R30" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="S30" s="109" t="s">
+      <c r="S30" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112" t="s">
+      <c r="B31" s="90"/>
+      <c r="C31" s="91" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="113"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="114"/>
+      <c r="D31" s="92"/>
+      <c r="E31" s="92"/>
+      <c r="F31" s="92"/>
+      <c r="G31" s="93"/>
       <c r="H31" s="32" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
@@ -4091,35 +4091,35 @@
         <v>Corresponde a los datos que se van a modificar del Residente</v>
       </c>
       <c r="K31" s="34"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="117"/>
-      <c r="P31" s="118" t="s">
+      <c r="L31" s="94"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="96"/>
+      <c r="P31" s="62" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q31" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="R31" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="Q31" s="119" t="s">
-        <v>139</v>
-      </c>
-      <c r="R31" s="119" t="s">
-        <v>168</v>
-      </c>
-      <c r="S31" s="120" t="s">
+      <c r="S31" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="121" t="s">
+      <c r="A32" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="122"/>
-      <c r="C32" s="123" t="s">
+      <c r="B32" s="74"/>
+      <c r="C32" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="124"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="125"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="77"/>
       <c r="H32" s="35" t="s">
         <v>39</v>
       </c>
@@ -4131,18 +4131,18 @@
         <v>Corresponde al identificador del Residente  que se quiere dar de baja.</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="126"/>
-      <c r="M32" s="127"/>
-      <c r="N32" s="127"/>
-      <c r="O32" s="128"/>
+      <c r="L32" s="78"/>
+      <c r="M32" s="79"/>
+      <c r="N32" s="79"/>
+      <c r="O32" s="80"/>
       <c r="P32" s="25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q32" s="37" t="s">
         <v>139</v>
       </c>
       <c r="R32" s="37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="S32" s="37" t="s">
         <v>141</v>
@@ -4150,20 +4150,14 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="L31:O31"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="C25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J18:J21"/>
     <mergeCell ref="L25:O28"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="L24:O24"/>
@@ -4180,14 +4174,20 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E18:E21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="J18:J21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="C25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="L31:O31"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
@@ -4231,8 +4231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE91583B-F698-4020-97FF-1414BFE2C5EB}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView topLeftCell="I10" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23:O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4263,73 +4263,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="51" t="str">
+      <c r="B2" s="125" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="125"/>
+      <c r="L2" s="125"/>
+      <c r="M2" s="125"/>
+      <c r="N2" s="125"/>
+      <c r="O2" s="125"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
     </row>
     <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="52" t="str">
+      <c r="B3" s="126" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52"/>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="126"/>
+      <c r="I3" s="126"/>
+      <c r="J3" s="126"/>
+      <c r="K3" s="126"/>
+      <c r="L3" s="126"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="126"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="126"/>
+      <c r="Q3" s="126"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
@@ -4383,18 +4383,18 @@
       <c r="Q4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="55" t="s">
+      <c r="R4" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="S4" s="56" t="str">
+      <c r="S4" s="43" t="str">
         <f>A23</f>
         <v>Buscar</v>
       </c>
-      <c r="T4" s="57" t="str">
+      <c r="T4" s="44" t="str">
         <f>A24</f>
         <v>Modificar</v>
       </c>
-      <c r="U4" s="58" t="str">
+      <c r="U4" s="45" t="str">
         <f>A25</f>
         <v>Eliminar</v>
       </c>
@@ -4439,7 +4439,7 @@
       <c r="Q5" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S5" s="23" t="s">
@@ -4492,7 +4492,7 @@
       <c r="Q6" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="R6" s="59" t="s">
+      <c r="R6" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S6" s="23" t="s">
@@ -4543,7 +4543,7 @@
       <c r="Q7" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="R7" s="59" t="s">
+      <c r="R7" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S7" s="23" t="s">
@@ -4580,7 +4580,7 @@
       <c r="Q8" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="R8" s="59" t="s">
+      <c r="R8" s="46" t="s">
         <v>107</v>
       </c>
       <c r="S8" s="31" t="s">
@@ -4595,11 +4595,11 @@
     </row>
     <row r="9" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="26" t="s">
@@ -4613,78 +4613,78 @@
       </c>
     </row>
     <row r="12" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="139" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="139" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="48" t="s">
+      <c r="C12" s="140" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="49"/>
-      <c r="C13" s="48"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="140"/>
     </row>
     <row r="14" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="139"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="139"/>
       <c r="C15" s="38" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="128" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="61"/>
-      <c r="C17" s="62" t="s">
+      <c r="B17" s="129"/>
+      <c r="C17" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="64" t="s">
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="119" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="65"/>
-      <c r="J17" s="66"/>
-      <c r="K17" s="64" t="s">
+      <c r="I17" s="136"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="65"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="64" t="s">
+      <c r="L17" s="136"/>
+      <c r="M17" s="136"/>
+      <c r="N17" s="136"/>
+      <c r="O17" s="137"/>
+      <c r="P17" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="64" t="s">
+      <c r="Q17" s="137"/>
+      <c r="R17" s="119" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="67"/>
+      <c r="S17" s="120"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="68"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="72" t="s">
+      <c r="A18" s="130"/>
+      <c r="B18" s="131"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="47" t="s">
         <v>56</v>
       </c>
       <c r="I18" s="27" t="s">
@@ -4696,12 +4696,12 @@
       <c r="K18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="73" t="s">
+      <c r="L18" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="74"/>
-      <c r="N18" s="74"/>
-      <c r="O18" s="75"/>
+      <c r="M18" s="122"/>
+      <c r="N18" s="122"/>
+      <c r="O18" s="123"/>
       <c r="P18" s="27" t="s">
         <v>58</v>
       </c>
@@ -4716,34 +4716,34 @@
       </c>
     </row>
     <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="76" t="s">
+      <c r="A19" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="77"/>
-      <c r="C19" s="78" t="s">
+      <c r="B19" s="98"/>
+      <c r="C19" s="101" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81" t="str">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="107" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosInmueble</v>
       </c>
-      <c r="I19" s="82" t="str">
+      <c r="I19" s="141" t="str">
         <f>B2</f>
         <v>Inmueble</v>
       </c>
-      <c r="J19" s="83" t="str">
+      <c r="J19" s="111" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Inmueble</v>
       </c>
-      <c r="K19" s="84"/>
-      <c r="L19" s="85"/>
-      <c r="M19" s="86"/>
-      <c r="N19" s="86"/>
-      <c r="O19" s="87"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="113"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="115"/>
       <c r="P19" s="13" t="s">
         <v>115</v>
       </c>
@@ -4753,26 +4753,26 @@
       <c r="R19" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="S19" s="88" t="s">
+      <c r="S19" s="49" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="90"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="92"/>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="94"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="97"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="99"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="100"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="142"/>
+      <c r="J20" s="112"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="116"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="118"/>
       <c r="P20" s="13" t="s">
         <v>119</v>
       </c>
@@ -4782,26 +4782,26 @@
       <c r="R20" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="S20" s="88" t="s">
+      <c r="S20" s="49" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="89"/>
-      <c r="B21" s="90"/>
-      <c r="C21" s="91"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="94"/>
-      <c r="I21" s="95"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="97"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="99"/>
-      <c r="N21" s="99"/>
-      <c r="O21" s="100"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="112"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="116"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="118"/>
       <c r="P21" s="13" t="s">
         <v>123</v>
       </c>
@@ -4811,26 +4811,26 @@
       <c r="R21" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="S21" s="88" t="s">
+      <c r="S21" s="49" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="89"/>
-      <c r="B22" s="90"/>
-      <c r="C22" s="91"/>
-      <c r="D22" s="92"/>
-      <c r="E22" s="92"/>
-      <c r="F22" s="92"/>
-      <c r="G22" s="93"/>
-      <c r="H22" s="94"/>
-      <c r="I22" s="95"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="97"/>
-      <c r="L22" s="98"/>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="100"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="142"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="116"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="118"/>
       <c r="P22" s="13" t="s">
         <v>127</v>
       </c>
@@ -4840,22 +4840,22 @@
       <c r="R22" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="S22" s="88" t="s">
+      <c r="S22" s="49" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="101" t="s">
+    <row r="23" spans="1:19" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="81" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="102"/>
-      <c r="C23" s="103" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="83" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="104"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="105"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="30" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosInmueble</v>
@@ -4871,12 +4871,12 @@
       <c r="K23" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="L23" s="106" t="s">
+      <c r="L23" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
+      <c r="M23" s="87"/>
+      <c r="N23" s="87"/>
+      <c r="O23" s="88"/>
       <c r="P23" s="23" t="s">
         <v>134</v>
       </c>
@@ -4886,22 +4886,22 @@
       <c r="R23" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="S23" s="109" t="s">
+      <c r="S23" s="61" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="89" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="112" t="s">
+      <c r="B24" s="90"/>
+      <c r="C24" s="91" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="93"/>
       <c r="H24" s="32" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosInmueble</v>
@@ -4915,35 +4915,35 @@
         <v>Corresponde a los datos que se van a modificar de la Inmueble</v>
       </c>
       <c r="K24" s="34"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="117"/>
-      <c r="P24" s="118" t="s">
+      <c r="L24" s="94"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="96"/>
+      <c r="P24" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="Q24" s="119" t="s">
+      <c r="Q24" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="R24" s="119" t="s">
+      <c r="R24" s="63" t="s">
         <v>140</v>
       </c>
-      <c r="S24" s="120" t="s">
+      <c r="S24" s="64" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="73" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="123" t="s">
+      <c r="B25" s="74"/>
+      <c r="C25" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="124"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="125"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
       <c r="H25" s="35" t="s">
         <v>39</v>
       </c>
@@ -4955,10 +4955,10 @@
         <v>Corresponde al identificador de la Inmueble  que se quiere dar de baja.</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="126"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="128"/>
+      <c r="L25" s="78"/>
+      <c r="M25" s="79"/>
+      <c r="N25" s="79"/>
+      <c r="O25" s="80"/>
       <c r="P25" s="25" t="s">
         <v>138</v>
       </c>
@@ -4974,6 +4974,26 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="C19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="L25:O25"/>
@@ -4983,26 +5003,6 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="L24:O24"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="A19:B22"/>
-    <mergeCell ref="C19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="L19:O22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4C6EA31D-5DD1-42F9-A469-ED5E8CAE0643}"/>

--- a/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
+++ b/Doo-Doc/Nueva Version Victus/Modelos de Dominio Enriquecidos/Modelo De Dominio Enriquecido Residentes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josez\Documents\Universidad IngeSistemas\Diseño Orientado a Objetos(DOO)\VictusProyect\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\DOO 2024 BD\DOO\victus-doc\Doo-Doc\Nueva Version Victus\Modelos de Dominio Enriquecidos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3472D0B9-10EE-4E64-A791-3FC9C14E2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB36B92-521F-4F14-B89E-5C9909EC606C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="4" xr2:uid="{007C2ECE-7E90-4717-B1E7-3A143C146FF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Valores" sheetId="1" r:id="rId1"/>
@@ -2189,6 +2189,138 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="34" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2260,138 +2392,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="31" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2789,19 +2789,19 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="68"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -2825,52 +2825,52 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -2891,7 +2891,7 @@
       <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2906,16 +2906,16 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.44140625" style="7"/>
+    <col min="1" max="1" width="21.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>16</v>
       </c>
@@ -2925,7 +2925,7 @@
       <c r="C1" s="69"/>
       <c r="D1" s="70"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>17</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>19</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>Residentes</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>68</v>
       </c>
@@ -2983,107 +2983,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3CD2E3E-2179-4007-8743-BED3F3BF1317}">
   <dimension ref="A1:U32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E9" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="116.6640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="7"/>
+    <col min="17" max="17" width="94.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="116.7109375" style="7" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="125" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Listado Objetos de Dominio'!A3</f>
         <v>Residente</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="126" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!B3</f>
         <v>Objeto de dominio que representa a un residente que vive dentro de un inmueble en un conjunto residencial</v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>43</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>63</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>71</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>82</v>
       </c>
@@ -3418,7 +3418,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>64</v>
       </c>
@@ -3467,7 +3467,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>83</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>98</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="69" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="67.5" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>72</v>
       </c>
@@ -3628,7 +3628,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>65</v>
       </c>
@@ -3677,24 +3677,24 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="127" t="s">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
         <v>93</v>
       </c>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="E16" s="127" t="s">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127"/>
-      <c r="I16" s="127" t="s">
+      <c r="F16" s="74"/>
+      <c r="G16" s="74"/>
+      <c r="I16" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="J16" s="127"/>
-      <c r="K16" s="127"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J16" s="74"/>
+      <c r="K16" s="74"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="26" t="s">
         <v>48</v>
       </c>
@@ -3723,114 +3723,114 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="138" t="s">
+    <row r="18" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="140" t="s">
+      <c r="C18" s="73" t="s">
         <v>71</v>
       </c>
-      <c r="E18" s="139" t="s">
+      <c r="E18" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="139" t="s">
+      <c r="F18" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="140" t="s">
+      <c r="G18" s="73" t="s">
         <v>83</v>
       </c>
       <c r="H18" s="39"/>
-      <c r="I18" s="138" t="s">
+      <c r="I18" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="J18" s="139" t="s">
+      <c r="J18" s="76" t="s">
         <v>97</v>
       </c>
-      <c r="K18" s="140" t="s">
+      <c r="K18" s="73" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="138"/>
-      <c r="B19" s="139"/>
-      <c r="C19" s="140"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="140"/>
+    <row r="19" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="75"/>
+      <c r="B19" s="76"/>
+      <c r="C19" s="73"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="73"/>
       <c r="H19" s="39"/>
-      <c r="I19" s="138"/>
-      <c r="J19" s="139"/>
-      <c r="K19" s="140"/>
-    </row>
-    <row r="20" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="138"/>
-      <c r="B20" s="139"/>
-      <c r="C20" s="140" t="s">
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+      <c r="K19" s="73"/>
+    </row>
+    <row r="20" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="73" t="s">
         <v>82</v>
       </c>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="140"/>
-      <c r="I20" s="138"/>
-      <c r="J20" s="139"/>
-      <c r="K20" s="140"/>
-    </row>
-    <row r="21" spans="1:19" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
-      <c r="B21" s="139"/>
-      <c r="C21" s="140"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="140"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="139"/>
-      <c r="K21" s="140"/>
-    </row>
-    <row r="22" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="128" t="s">
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="73"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="73"/>
+    </row>
+    <row r="21" spans="1:19" ht="25.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="75"/>
+      <c r="B21" s="76"/>
+      <c r="C21" s="73"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="73"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
+      <c r="K21" s="73"/>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="129"/>
-      <c r="C23" s="132" t="s">
+      <c r="B23" s="92"/>
+      <c r="C23" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="133"/>
-      <c r="E23" s="133"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="119" t="s">
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="136"/>
-      <c r="J23" s="137"/>
-      <c r="K23" s="119" t="s">
+      <c r="I23" s="99"/>
+      <c r="J23" s="100"/>
+      <c r="K23" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="L23" s="136"/>
-      <c r="M23" s="136"/>
-      <c r="N23" s="136"/>
-      <c r="O23" s="137"/>
-      <c r="P23" s="119" t="s">
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="100"/>
+      <c r="P23" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="Q23" s="137"/>
-      <c r="R23" s="119" t="s">
+      <c r="Q23" s="100"/>
+      <c r="R23" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="S23" s="120"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="130"/>
-      <c r="B24" s="131"/>
-      <c r="C24" s="134"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="135"/>
-      <c r="F24" s="135"/>
-      <c r="G24" s="131"/>
+      <c r="S23" s="84"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="93"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="98"/>
+      <c r="G24" s="94"/>
       <c r="H24" s="47" t="s">
         <v>56</v>
       </c>
@@ -3843,12 +3843,12 @@
       <c r="K24" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L24" s="121" t="s">
+      <c r="L24" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M24" s="122"/>
-      <c r="N24" s="122"/>
-      <c r="O24" s="123"/>
+      <c r="M24" s="86"/>
+      <c r="N24" s="86"/>
+      <c r="O24" s="87"/>
       <c r="P24" s="27" t="s">
         <v>58</v>
       </c>
@@ -3862,35 +3862,35 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="97" t="s">
+    <row r="25" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="98"/>
-      <c r="C25" s="101" t="s">
+      <c r="B25" s="102"/>
+      <c r="C25" s="105" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="107" t="str">
+      <c r="D25" s="106"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="106"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="111" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
       </c>
-      <c r="I25" s="109" t="str">
+      <c r="I25" s="113" t="str">
         <f>B2</f>
         <v>Residente</v>
       </c>
-      <c r="J25" s="111" t="str">
+      <c r="J25" s="115" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo ",B2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear un nuevo Residente</v>
       </c>
       <c r="K25" s="48"/>
-      <c r="L25" s="113"/>
-      <c r="M25" s="114"/>
-      <c r="N25" s="114"/>
-      <c r="O25" s="115"/>
+      <c r="L25" s="77"/>
+      <c r="M25" s="78"/>
+      <c r="N25" s="78"/>
+      <c r="O25" s="79"/>
       <c r="P25" s="13" t="s">
         <v>150</v>
       </c>
@@ -3904,22 +3904,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="99"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="112"/>
+    <row r="26" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="103"/>
+      <c r="B26" s="104"/>
+      <c r="C26" s="108"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="112"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="116"/>
       <c r="K26" s="57"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="117"/>
-      <c r="N26" s="117"/>
-      <c r="O26" s="118"/>
+      <c r="L26" s="80"/>
+      <c r="M26" s="81"/>
+      <c r="N26" s="81"/>
+      <c r="O26" s="82"/>
       <c r="P26" s="13" t="s">
         <v>151</v>
       </c>
@@ -3933,22 +3933,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="99"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="104"/>
-      <c r="D27" s="105"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="108"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="112"/>
+    <row r="27" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="103"/>
+      <c r="B27" s="104"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="110"/>
+      <c r="H27" s="112"/>
+      <c r="I27" s="114"/>
+      <c r="J27" s="116"/>
       <c r="K27" s="57"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="117"/>
-      <c r="N27" s="117"/>
-      <c r="O27" s="118"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="81"/>
+      <c r="N27" s="81"/>
+      <c r="O27" s="82"/>
       <c r="P27" s="13" t="s">
         <v>152</v>
       </c>
@@ -3962,22 +3962,22 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="99"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="104"/>
-      <c r="D28" s="105"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="108"/>
-      <c r="I28" s="110"/>
-      <c r="J28" s="112"/>
+    <row r="28" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="103"/>
+      <c r="B28" s="104"/>
+      <c r="C28" s="108"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="109"/>
+      <c r="G28" s="110"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="114"/>
+      <c r="J28" s="116"/>
       <c r="K28" s="57"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="118"/>
+      <c r="L28" s="80"/>
+      <c r="M28" s="81"/>
+      <c r="N28" s="81"/>
+      <c r="O28" s="82"/>
       <c r="P28" s="13" t="s">
         <v>153</v>
       </c>
@@ -3991,7 +3991,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="50"/>
       <c r="B29" s="51"/>
       <c r="C29" s="52"/>
@@ -4020,18 +4020,18 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="81" t="s">
+    <row r="30" spans="1:19" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B30" s="82"/>
-      <c r="C30" s="83" t="s">
+      <c r="B30" s="126"/>
+      <c r="C30" s="127" t="s">
         <v>145</v>
       </c>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="85"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="129"/>
       <c r="H30" s="30" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
@@ -4047,12 +4047,12 @@
       <c r="K30" s="41" t="s">
         <v>149</v>
       </c>
-      <c r="L30" s="86" t="s">
+      <c r="L30" s="130" t="s">
         <v>170</v>
       </c>
-      <c r="M30" s="87"/>
-      <c r="N30" s="87"/>
-      <c r="O30" s="88"/>
+      <c r="M30" s="131"/>
+      <c r="N30" s="131"/>
+      <c r="O30" s="132"/>
       <c r="P30" s="23" t="s">
         <v>165</v>
       </c>
@@ -4066,18 +4066,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="89" t="s">
+    <row r="31" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="91" t="s">
+      <c r="B31" s="134"/>
+      <c r="C31" s="135" t="s">
         <v>146</v>
       </c>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="92"/>
-      <c r="G31" s="93"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
       <c r="H31" s="32" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosResidente</v>
@@ -4091,10 +4091,10 @@
         <v>Corresponde a los datos que se van a modificar del Residente</v>
       </c>
       <c r="K31" s="34"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="95"/>
-      <c r="N31" s="95"/>
-      <c r="O31" s="96"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="140"/>
       <c r="P31" s="62" t="s">
         <v>166</v>
       </c>
@@ -4108,18 +4108,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="73" t="s">
+    <row r="32" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75" t="s">
+      <c r="B32" s="118"/>
+      <c r="C32" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="77"/>
+      <c r="D32" s="120"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="120"/>
+      <c r="G32" s="121"/>
       <c r="H32" s="35" t="s">
         <v>39</v>
       </c>
@@ -4131,10 +4131,10 @@
         <v>Corresponde al identificador del Residente  que se quiere dar de baja.</v>
       </c>
       <c r="K32" s="36"/>
-      <c r="L32" s="78"/>
-      <c r="M32" s="79"/>
-      <c r="N32" s="79"/>
-      <c r="O32" s="80"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="123"/>
+      <c r="N32" s="123"/>
+      <c r="O32" s="124"/>
       <c r="P32" s="25" t="s">
         <v>166</v>
       </c>
@@ -4150,14 +4150,20 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G18:G21"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I18:I21"/>
-    <mergeCell ref="K18:K21"/>
-    <mergeCell ref="F18:F21"/>
-    <mergeCell ref="J18:J21"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="L32:O32"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:G30"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="A25:B28"/>
+    <mergeCell ref="C25:G28"/>
+    <mergeCell ref="H25:H28"/>
+    <mergeCell ref="I25:I28"/>
+    <mergeCell ref="J25:J28"/>
     <mergeCell ref="L25:O28"/>
     <mergeCell ref="R23:S23"/>
     <mergeCell ref="L24:O24"/>
@@ -4174,20 +4180,14 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="E16:G16"/>
     <mergeCell ref="E18:E21"/>
-    <mergeCell ref="A25:B28"/>
-    <mergeCell ref="C25:G28"/>
-    <mergeCell ref="H25:H28"/>
-    <mergeCell ref="I25:I28"/>
-    <mergeCell ref="J25:J28"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:G30"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="L31:O31"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="G18:G21"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="K18:K21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="J18:J21"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{475DC609-B6D5-4D2D-A170-5000DA801120}"/>
@@ -4231,107 +4231,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE91583B-F698-4020-97FF-1414BFE2C5EB}">
   <dimension ref="A1:U25"/>
   <sheetViews>
-    <sheetView topLeftCell="I10" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23:O23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="61.33203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="79.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="61.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="79.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="94.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="132.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="46.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="50.109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="66.88671875" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="11.44140625" style="7"/>
+    <col min="17" max="17" width="94.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="132.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="46.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="50.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="66.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="52.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="124" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="125" t="str">
+      <c r="B2" s="89" t="str">
         <f>'Listado Objetos de Dominio'!A4</f>
         <v>Inmueble</v>
       </c>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="125"/>
-      <c r="I2" s="125"/>
-      <c r="J2" s="125"/>
-      <c r="K2" s="125"/>
-      <c r="L2" s="125"/>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="89"/>
+    </row>
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="126" t="str">
+      <c r="B3" s="90" t="str">
         <f>'Listado Objetos de Dominio'!B4</f>
         <v xml:space="preserve">Objeto de dominio que representa el inmueble donde vive el residente del conjunto residencial. </v>
       </c>
-      <c r="C3" s="126"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="126"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="126"/>
-      <c r="I3" s="126"/>
-      <c r="J3" s="126"/>
-      <c r="K3" s="126"/>
-      <c r="L3" s="126"/>
-      <c r="M3" s="126"/>
-      <c r="N3" s="126"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="126"/>
-      <c r="Q3" s="126"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>23</v>
       </c>
@@ -4399,7 +4399,7 @@
         <v>Eliminar</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>39</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" ht="27" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>76</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>77</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>78</v>
       </c>
@@ -4593,15 +4593,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="23.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="127" t="s">
+    <row r="9" spans="1:21" ht="23.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:21" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B10" s="74"/>
+      <c r="C10" s="74"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>48</v>
       </c>
@@ -4612,78 +4612,78 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="139" t="s">
+    <row r="12" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="76" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="73" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139"/>
-      <c r="C13" s="140"/>
-    </row>
-    <row r="14" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139"/>
+    <row r="13" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="73"/>
+    </row>
+    <row r="14" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="76"/>
       <c r="C14" s="38" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="31.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139"/>
+    <row r="15" spans="1:21" ht="31.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="76"/>
       <c r="C15" s="38" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="128" t="s">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="129"/>
-      <c r="C17" s="132" t="s">
+      <c r="B17" s="92"/>
+      <c r="C17" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="119" t="s">
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="83" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="136"/>
-      <c r="J17" s="137"/>
-      <c r="K17" s="119" t="s">
+      <c r="I17" s="99"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
-      <c r="N17" s="136"/>
-      <c r="O17" s="137"/>
-      <c r="P17" s="119" t="s">
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="100"/>
+      <c r="P17" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="Q17" s="137"/>
-      <c r="R17" s="119" t="s">
+      <c r="Q17" s="100"/>
+      <c r="R17" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="S17" s="120"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="130"/>
-      <c r="B18" s="131"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="135"/>
-      <c r="E18" s="135"/>
-      <c r="F18" s="135"/>
-      <c r="G18" s="131"/>
+      <c r="S17" s="84"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="93"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="94"/>
       <c r="H18" s="47" t="s">
         <v>56</v>
       </c>
@@ -4696,12 +4696,12 @@
       <c r="K18" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="L18" s="121" t="s">
+      <c r="L18" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="M18" s="122"/>
-      <c r="N18" s="122"/>
-      <c r="O18" s="123"/>
+      <c r="M18" s="86"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="87"/>
       <c r="P18" s="27" t="s">
         <v>58</v>
       </c>
@@ -4715,19 +4715,19 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="97" t="s">
+    <row r="19" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
         <v>106</v>
       </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="101" t="s">
+      <c r="B19" s="102"/>
+      <c r="C19" s="105" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="107" t="str">
+      <c r="D19" s="106"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="106"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="111" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosInmueble</v>
       </c>
@@ -4735,15 +4735,15 @@
         <f>B2</f>
         <v>Inmueble</v>
       </c>
-      <c r="J19" s="111" t="str">
+      <c r="J19" s="115" t="str">
         <f>_xlfn.CONCAT("Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva ",B2,)</f>
         <v>Corresponde al objeto que internamente contiene los datos necesarios para crear una nueva Inmueble</v>
       </c>
       <c r="K19" s="48"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="114"/>
-      <c r="N19" s="114"/>
-      <c r="O19" s="115"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
+      <c r="N19" s="78"/>
+      <c r="O19" s="79"/>
       <c r="P19" s="13" t="s">
         <v>115</v>
       </c>
@@ -4757,22 +4757,22 @@
         <v>118</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="104"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="108"/>
+    <row r="20" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="103"/>
+      <c r="B20" s="104"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="112"/>
       <c r="I20" s="142"/>
-      <c r="J20" s="112"/>
+      <c r="J20" s="116"/>
       <c r="K20" s="57"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="118"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="81"/>
+      <c r="N20" s="81"/>
+      <c r="O20" s="82"/>
       <c r="P20" s="13" t="s">
         <v>119</v>
       </c>
@@ -4786,22 +4786,22 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="108"/>
+    <row r="21" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="103"/>
+      <c r="B21" s="104"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="142"/>
-      <c r="J21" s="112"/>
+      <c r="J21" s="116"/>
       <c r="K21" s="57"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="118"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="81"/>
+      <c r="N21" s="81"/>
+      <c r="O21" s="82"/>
       <c r="P21" s="13" t="s">
         <v>123</v>
       </c>
@@ -4815,22 +4815,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="99"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="104"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="108"/>
+    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="103"/>
+      <c r="B22" s="104"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="110"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="142"/>
-      <c r="J22" s="112"/>
+      <c r="J22" s="116"/>
       <c r="K22" s="57"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="118"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="81"/>
+      <c r="N22" s="81"/>
+      <c r="O22" s="82"/>
       <c r="P22" s="13" t="s">
         <v>127</v>
       </c>
@@ -4844,18 +4844,18 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="71.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="81" t="s">
+    <row r="23" spans="1:19" ht="71.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="125" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="83" t="s">
+      <c r="B23" s="126"/>
+      <c r="C23" s="127" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="129"/>
       <c r="H23" s="30" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosInmueble</v>
@@ -4871,12 +4871,12 @@
       <c r="K23" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="L23" s="86" t="s">
+      <c r="L23" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="M23" s="87"/>
-      <c r="N23" s="87"/>
-      <c r="O23" s="88"/>
+      <c r="M23" s="131"/>
+      <c r="N23" s="131"/>
+      <c r="O23" s="132"/>
       <c r="P23" s="23" t="s">
         <v>134</v>
       </c>
@@ -4890,18 +4890,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A24" s="89" t="s">
+    <row r="24" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="133" t="s">
         <v>136</v>
       </c>
-      <c r="B24" s="90"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="134"/>
+      <c r="C24" s="135" t="s">
         <v>137</v>
       </c>
-      <c r="D24" s="92"/>
-      <c r="E24" s="92"/>
-      <c r="F24" s="92"/>
-      <c r="G24" s="93"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="137"/>
       <c r="H24" s="32" t="str">
         <f>_xlfn.CONCAT("datos",B2)</f>
         <v>datosInmueble</v>
@@ -4915,10 +4915,10 @@
         <v>Corresponde a los datos que se van a modificar de la Inmueble</v>
       </c>
       <c r="K24" s="34"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="95"/>
-      <c r="N24" s="95"/>
-      <c r="O24" s="96"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="140"/>
       <c r="P24" s="62" t="s">
         <v>138</v>
       </c>
@@ -4932,18 +4932,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="73" t="s">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="117" t="s">
         <v>142</v>
       </c>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75" t="s">
+      <c r="B25" s="118"/>
+      <c r="C25" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="121"/>
       <c r="H25" s="35" t="s">
         <v>39</v>
       </c>
@@ -4955,10 +4955,10 @@
         <v>Corresponde al identificador de la Inmueble  que se quiere dar de baja.</v>
       </c>
       <c r="K25" s="36"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="79"/>
-      <c r="N25" s="79"/>
-      <c r="O25" s="80"/>
+      <c r="L25" s="122"/>
+      <c r="M25" s="123"/>
+      <c r="N25" s="123"/>
+      <c r="O25" s="124"/>
       <c r="P25" s="25" t="s">
         <v>138</v>
       </c>
@@ -4974,26 +4974,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L19:O22"/>
-    <mergeCell ref="A19:B22"/>
-    <mergeCell ref="C19:G22"/>
-    <mergeCell ref="H19:H22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="L18:O18"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="C17:G18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:O17"/>
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:G25"/>
     <mergeCell ref="L25:O25"/>
@@ -5003,6 +4983,26 @@
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C24:G24"/>
     <mergeCell ref="L24:O24"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="C17:G18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:O17"/>
+    <mergeCell ref="L19:O22"/>
+    <mergeCell ref="A19:B22"/>
+    <mergeCell ref="C19:G22"/>
+    <mergeCell ref="H19:H22"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="J19:J22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{4C6EA31D-5DD1-42F9-A469-ED5E8CAE0643}"/>
